--- a/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.004230831194785</v>
+      </c>
+      <c r="D3">
         <v>0.9972013251289744</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.004230831194785</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.998894244601954</v>
       </c>
-      <c r="F3">
-        <v>0.9972013251289744</v>
-      </c>
       <c r="G3">
-        <v>0.9933138203287366</v>
+        <v>0.9983576674893676</v>
       </c>
       <c r="H3">
         <v>1.004632657920513</v>
       </c>
       <c r="I3">
-        <v>0.9983576674893676</v>
+        <v>0.9933138203287366</v>
       </c>
       <c r="J3">
-        <v>1.004230831194785</v>
+        <v>0.9972013251289744</v>
       </c>
       <c r="K3">
         <v>0.9972013251289744</v>
@@ -728,7 +680,7 @@
         <v>0.999438424444055</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.008474939462289</v>
+      </c>
+      <c r="D4">
         <v>0.994972988736445</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.008474939462289</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.9976693451671204</v>
       </c>
-      <c r="F4">
-        <v>0.994972988736445</v>
-      </c>
       <c r="G4">
-        <v>0.9870027421248593</v>
+        <v>0.9968041565392982</v>
       </c>
       <c r="H4">
         <v>1.008891691254106</v>
       </c>
       <c r="I4">
-        <v>0.9968041565392982</v>
+        <v>0.9870027421248593</v>
       </c>
       <c r="J4">
-        <v>1.008474939462289</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="K4">
         <v>0.994972988736445</v>
@@ -790,7 +742,7 @@
         <v>0.9989693105473529</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.015863727358234</v>
+      </c>
+      <c r="D5">
         <v>0.9895246062903952</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.015863727358234</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9959446767899475</v>
       </c>
-      <c r="F5">
-        <v>0.9895246062903952</v>
-      </c>
       <c r="G5">
-        <v>0.9754717977936168</v>
+        <v>0.9939065471118096</v>
       </c>
       <c r="H5">
         <v>1.017122372849945</v>
       </c>
       <c r="I5">
-        <v>0.9939065471118096</v>
+        <v>0.9754717977936168</v>
       </c>
       <c r="J5">
-        <v>1.015863727358234</v>
+        <v>0.9895246062903952</v>
       </c>
       <c r="K5">
         <v>0.9895246062903952</v>
@@ -852,7 +804,7 @@
         <v>0.9979722880323246</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.022789084751872</v>
+      </c>
+      <c r="D6">
         <v>0.9844819857434829</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.022789084751872</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.9940775297898654</v>
       </c>
-      <c r="F6">
-        <v>0.9844819857434829</v>
-      </c>
       <c r="G6">
-        <v>0.9645614949396231</v>
+        <v>0.9909137469572635</v>
       </c>
       <c r="H6">
         <v>1.025247436519778</v>
       </c>
       <c r="I6">
-        <v>0.9909137469572635</v>
+        <v>0.9645614949396231</v>
       </c>
       <c r="J6">
-        <v>1.022789084751872</v>
+        <v>0.9844819857434829</v>
       </c>
       <c r="K6">
         <v>0.9844819857434829</v>
@@ -914,7 +866,7 @@
         <v>0.9970118797836474</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998233504968851</v>
+        <v>1.000246285814935</v>
       </c>
       <c r="D7">
-        <v>1.000246285814934</v>
+        <v>0.9998233504968853</v>
       </c>
       <c r="E7">
+        <v>1.000246285814935</v>
+      </c>
+      <c r="F7">
         <v>0.9999622415555829</v>
       </c>
-      <c r="F7">
-        <v>0.9998233504968851</v>
-      </c>
       <c r="G7">
-        <v>0.9995882304509651</v>
+        <v>0.9999173699447712</v>
       </c>
       <c r="H7">
         <v>1.00025413384501</v>
       </c>
       <c r="I7">
-        <v>0.999917369944771</v>
+        <v>0.9995882304509653</v>
       </c>
       <c r="J7">
-        <v>1.000246285814934</v>
+        <v>0.9998233504968853</v>
       </c>
       <c r="K7">
-        <v>0.9998233504968851</v>
+        <v>0.9998233504968853</v>
       </c>
       <c r="L7">
         <v>0.9999622415555829</v>
       </c>
       <c r="M7">
-        <v>1.000104263685258</v>
+        <v>1.000104263685259</v>
       </c>
       <c r="N7">
-        <v>1.000104263685258</v>
+        <v>1.000104263685259</v>
       </c>
       <c r="O7">
-        <v>1.000154220405175</v>
+        <v>1.000154220405176</v>
       </c>
       <c r="P7">
         <v>1.000010625955801</v>
@@ -967,16 +919,16 @@
         <v>1.000010625955801</v>
       </c>
       <c r="R7">
-        <v>0.9999638070910717</v>
+        <v>0.999963807091072</v>
       </c>
       <c r="S7">
-        <v>0.9999638070910717</v>
+        <v>0.999963807091072</v>
       </c>
       <c r="T7">
-        <v>0.9999652686846913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999652686846915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998851713421815</v>
+        <v>1.000230543034341</v>
       </c>
       <c r="D8">
-        <v>1.000230543034342</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="E8">
-        <v>0.9998972034668282</v>
+        <v>1.000230543034341</v>
       </c>
       <c r="F8">
-        <v>0.9998851713421815</v>
+        <v>0.9998972034668279</v>
       </c>
       <c r="G8">
-        <v>0.9990238535250192</v>
+        <v>0.9998799495065035</v>
       </c>
       <c r="H8">
-        <v>1.000432302975869</v>
+        <v>1.00043230297587</v>
       </c>
       <c r="I8">
-        <v>0.9998799495065032</v>
+        <v>0.9990238535250189</v>
       </c>
       <c r="J8">
-        <v>1.000230543034342</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="K8">
-        <v>0.9998851713421815</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="L8">
-        <v>0.9998972034668282</v>
+        <v>0.9998972034668279</v>
       </c>
       <c r="M8">
-        <v>1.000063873250585</v>
+        <v>1.000063873250584</v>
       </c>
       <c r="N8">
-        <v>1.000063873250585</v>
+        <v>1.000063873250584</v>
       </c>
       <c r="O8">
         <v>1.000186683159013</v>
       </c>
       <c r="P8">
-        <v>1.000004305947784</v>
+        <v>1.000004305947783</v>
       </c>
       <c r="Q8">
-        <v>1.000004305947784</v>
+        <v>1.000004305947783</v>
       </c>
       <c r="R8">
-        <v>0.9999745222963832</v>
+        <v>0.9999745222963826</v>
       </c>
       <c r="S8">
-        <v>0.9999745222963832</v>
+        <v>0.9999745222963826</v>
       </c>
       <c r="T8">
         <v>0.9998915039751237</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000203337606563</v>
+      </c>
+      <c r="D9">
         <v>1.00036521036794</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.000203337606563</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.9996595719333589</v>
       </c>
-      <c r="F9">
-        <v>1.00036521036794</v>
-      </c>
       <c r="G9">
-        <v>0.9983570218074885</v>
+        <v>0.9998491921503623</v>
       </c>
       <c r="H9">
         <v>1.000530921048608</v>
       </c>
       <c r="I9">
-        <v>0.9998491921503623</v>
+        <v>0.9983570218074885</v>
       </c>
       <c r="J9">
-        <v>1.000203337606563</v>
+        <v>1.00036521036794</v>
       </c>
       <c r="K9">
         <v>1.00036521036794</v>
@@ -1100,7 +1052,7 @@
         <v>0.9998275424857201</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000530458879136</v>
+      </c>
+      <c r="D10">
         <v>1.000130433645545</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.000530458879136</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.999509384116756</v>
       </c>
-      <c r="F10">
-        <v>1.000130433645545</v>
-      </c>
       <c r="G10">
-        <v>0.9967911005871375</v>
+        <v>0.9996541066125855</v>
       </c>
       <c r="H10">
         <v>1.001246081000591</v>
       </c>
       <c r="I10">
-        <v>0.9996541066125855</v>
+        <v>0.9967911005871375</v>
       </c>
       <c r="J10">
-        <v>1.000530458879136</v>
+        <v>1.000130433645545</v>
       </c>
       <c r="K10">
         <v>1.000130433645545</v>
@@ -1162,7 +1114,7 @@
         <v>0.9996435941402918</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,31 +1122,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001952154240782</v>
+        <v>1.000219319420811</v>
       </c>
       <c r="D11">
+        <v>1.001952154240781</v>
+      </c>
+      <c r="E11">
         <v>1.000219319420811</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.9986509052677405</v>
       </c>
-      <c r="F11">
-        <v>1.001952154240782</v>
-      </c>
       <c r="G11">
-        <v>0.9937232785541932</v>
+        <v>0.9995516739569578</v>
       </c>
       <c r="H11">
         <v>1.001730087651866</v>
       </c>
       <c r="I11">
-        <v>0.9995516739569578</v>
+        <v>0.9937232785541932</v>
       </c>
       <c r="J11">
-        <v>1.000219319420811</v>
+        <v>1.001952154240781</v>
       </c>
       <c r="K11">
-        <v>1.001952154240782</v>
+        <v>1.001952154240781</v>
       </c>
       <c r="L11">
         <v>0.9986509052677405</v>
@@ -1215,16 +1167,16 @@
         <v>1.000274126309778</v>
       </c>
       <c r="R11">
-        <v>1.000693633292529</v>
+        <v>1.000693633292528</v>
       </c>
       <c r="S11">
-        <v>1.000693633292529</v>
+        <v>1.000693633292528</v>
       </c>
       <c r="T11">
         <v>0.999304569848725</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9739418494671106</v>
+      </c>
+      <c r="D12">
         <v>1.017233168394421</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.9739418494671106</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.9920924749330989</v>
       </c>
-      <c r="F12">
-        <v>1.017233168394421</v>
-      </c>
       <c r="G12">
-        <v>0.9212251918791787</v>
+        <v>0.9994910868143071</v>
       </c>
       <c r="H12">
         <v>1.017984232218535</v>
       </c>
       <c r="I12">
-        <v>0.999491086814307</v>
+        <v>0.9212251918791787</v>
       </c>
       <c r="J12">
-        <v>0.9739418494671106</v>
+        <v>1.017233168394421</v>
       </c>
       <c r="K12">
         <v>1.017233168394421</v>
@@ -1286,7 +1238,7 @@
         <v>0.9869946672844417</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.055415523077768</v>
+      </c>
+      <c r="D13">
         <v>1.001662564591766</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.055415523077768</v>
       </c>
-      <c r="E13">
-        <v>0.9861804254626094</v>
-      </c>
       <c r="F13">
-        <v>1.001662564591766</v>
+        <v>0.9861804254626093</v>
       </c>
       <c r="G13">
-        <v>1.029773688224776</v>
+        <v>0.9906513288027442</v>
       </c>
       <c r="H13">
         <v>1.003341934373201</v>
       </c>
       <c r="I13">
-        <v>0.9906513288027443</v>
+        <v>1.029773688224776</v>
       </c>
       <c r="J13">
-        <v>1.055415523077768</v>
+        <v>1.001662564591766</v>
       </c>
       <c r="K13">
         <v>1.001662564591766</v>
       </c>
       <c r="L13">
-        <v>0.9861804254626094</v>
+        <v>0.9861804254626093</v>
       </c>
       <c r="M13">
         <v>1.020797974270188</v>
@@ -1348,7 +1300,7 @@
         <v>1.011170910755477</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6909695004160498</v>
+        <v>1.421533642546747</v>
       </c>
       <c r="D14">
-        <v>1.421533642546746</v>
+        <v>0.6909695004160497</v>
       </c>
       <c r="E14">
+        <v>1.421533642546747</v>
+      </c>
+      <c r="F14">
         <v>1.021658297021128</v>
       </c>
-      <c r="F14">
-        <v>0.6909695004160498</v>
-      </c>
       <c r="G14">
-        <v>1.203959045191977</v>
+        <v>0.9254290813736291</v>
       </c>
       <c r="H14">
         <v>1.11234435219816</v>
       </c>
       <c r="I14">
-        <v>0.9254290813736291</v>
+        <v>1.203959045191977</v>
       </c>
       <c r="J14">
-        <v>1.421533642546746</v>
+        <v>0.6909695004160497</v>
       </c>
       <c r="K14">
-        <v>0.6909695004160498</v>
+        <v>0.6909695004160497</v>
       </c>
       <c r="L14">
         <v>1.021658297021128</v>
@@ -1410,7 +1362,7 @@
         <v>1.062648986457948</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.920870893691443</v>
+      </c>
+      <c r="D15">
         <v>1.07046845127991</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.920870893691443</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.9766149069511636</v>
       </c>
-      <c r="F15">
-        <v>1.07046845127991</v>
-      </c>
       <c r="G15">
-        <v>0.8115541720883946</v>
+        <v>1.003922125850108</v>
       </c>
       <c r="H15">
         <v>1.028704240038631</v>
       </c>
       <c r="I15">
-        <v>1.003922125850108</v>
+        <v>0.8115541720883946</v>
       </c>
       <c r="J15">
-        <v>0.920870893691443</v>
+        <v>1.07046845127991</v>
       </c>
       <c r="K15">
         <v>1.07046845127991</v>
@@ -1472,7 +1424,7 @@
         <v>0.9686891316499415</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989500255424506</v>
+        <v>1.092347869418189</v>
       </c>
       <c r="D16">
-        <v>1.000534157659648</v>
+        <v>0.9468799187466183</v>
       </c>
       <c r="E16">
-        <v>1.000345701989874</v>
+        <v>1.092347869418189</v>
       </c>
       <c r="F16">
-        <v>0.9989500255424506</v>
+        <v>0.9765572765888236</v>
       </c>
       <c r="G16">
-        <v>1.001022209740835</v>
+        <v>0.9672459996548003</v>
       </c>
       <c r="H16">
-        <v>1.00005893078789</v>
+        <v>1.089408740135984</v>
       </c>
       <c r="I16">
-        <v>0.9999387038701325</v>
+        <v>0.8738226774947342</v>
       </c>
       <c r="J16">
-        <v>1.000534157659648</v>
+        <v>0.9468799187466183</v>
       </c>
       <c r="K16">
-        <v>0.9989500255424506</v>
+        <v>0.9468799187466183</v>
       </c>
       <c r="L16">
-        <v>1.000345701989874</v>
+        <v>0.9765572765888236</v>
       </c>
       <c r="M16">
-        <v>1.000439929824761</v>
+        <v>1.034452573003506</v>
       </c>
       <c r="N16">
-        <v>1.000439929824761</v>
+        <v>1.034452573003506</v>
       </c>
       <c r="O16">
-        <v>1.000312930145804</v>
+        <v>1.052771295380999</v>
       </c>
       <c r="P16">
-        <v>0.9999432950639912</v>
+        <v>1.00526168825121</v>
       </c>
       <c r="Q16">
-        <v>0.9999432950639912</v>
+        <v>1.00526168825121</v>
       </c>
       <c r="R16">
-        <v>0.999694977683606</v>
+        <v>0.9906662458750621</v>
       </c>
       <c r="S16">
-        <v>0.999694977683606</v>
+        <v>0.9906662458750621</v>
       </c>
       <c r="T16">
-        <v>1.000141621598472</v>
+        <v>0.9910437470065249</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001066541341423</v>
+        <v>1.079936830280888</v>
       </c>
       <c r="D17">
-        <v>0.9996075416414906</v>
+        <v>0.9540380629758377</v>
       </c>
       <c r="E17">
-        <v>0.9995251202634059</v>
+        <v>1.079936830280888</v>
       </c>
       <c r="F17">
-        <v>1.001066541341423</v>
+        <v>0.9816859087403257</v>
       </c>
       <c r="G17">
-        <v>0.9979167865750059</v>
+        <v>0.9731187168007897</v>
       </c>
       <c r="H17">
-        <v>1.000330404070149</v>
+        <v>1.072602576060935</v>
       </c>
       <c r="I17">
-        <v>0.9999677482725295</v>
+        <v>0.9004130341797943</v>
       </c>
       <c r="J17">
-        <v>0.9996075416414906</v>
+        <v>0.9540380629758377</v>
       </c>
       <c r="K17">
-        <v>1.001066541341423</v>
+        <v>0.9540380629758377</v>
       </c>
       <c r="L17">
-        <v>0.9995251202634059</v>
+        <v>0.9816859087403257</v>
       </c>
       <c r="M17">
-        <v>0.9995663309524483</v>
+        <v>1.030811369510607</v>
       </c>
       <c r="N17">
-        <v>0.9995663309524483</v>
+        <v>1.030811369510607</v>
       </c>
       <c r="O17">
-        <v>0.999821021991682</v>
+        <v>1.044741771694049</v>
       </c>
       <c r="P17">
-        <v>1.000066401082107</v>
+        <v>1.00522026733235</v>
       </c>
       <c r="Q17">
-        <v>1.000066401082107</v>
+        <v>1.00522026733235</v>
       </c>
       <c r="R17">
-        <v>1.000316436146936</v>
+        <v>0.9924247162432223</v>
       </c>
       <c r="S17">
-        <v>1.000316436146936</v>
+        <v>0.9924247162432223</v>
       </c>
       <c r="T17">
-        <v>0.9997356903606676</v>
+        <v>0.9936325215064284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964007549355601</v>
+        <v>1.05438730334865</v>
       </c>
       <c r="D18">
-        <v>1.003071315005669</v>
+        <v>0.9692413649122372</v>
       </c>
       <c r="E18">
-        <v>1.000494621643663</v>
+        <v>1.05438730334865</v>
       </c>
       <c r="F18">
-        <v>0.9964007549355601</v>
+        <v>0.9918095440693057</v>
       </c>
       <c r="G18">
-        <v>1.0010799430855</v>
+        <v>0.9850280272518374</v>
       </c>
       <c r="H18">
-        <v>1.001521624379173</v>
+        <v>1.038557256162713</v>
       </c>
       <c r="I18">
-        <v>0.9992770788277704</v>
+        <v>0.953648404862801</v>
       </c>
       <c r="J18">
-        <v>1.003071315005669</v>
+        <v>0.9692413649122372</v>
       </c>
       <c r="K18">
-        <v>0.9964007549355601</v>
+        <v>0.9692413649122372</v>
       </c>
       <c r="L18">
-        <v>1.000494621643663</v>
+        <v>0.9918095440693057</v>
       </c>
       <c r="M18">
-        <v>1.001782968324666</v>
+        <v>1.023098423708978</v>
       </c>
       <c r="N18">
-        <v>1.001782968324666</v>
+        <v>1.023098423708978</v>
       </c>
       <c r="O18">
-        <v>1.001695853676169</v>
+        <v>1.028251367860223</v>
       </c>
       <c r="P18">
-        <v>0.9999888971949643</v>
+        <v>1.005146070776731</v>
       </c>
       <c r="Q18">
-        <v>0.9999888971949643</v>
+        <v>1.005146070776731</v>
       </c>
       <c r="R18">
-        <v>0.9990918616301133</v>
+        <v>0.9961698943106074</v>
       </c>
       <c r="S18">
-        <v>0.9990918616301133</v>
+        <v>0.9961698943106074</v>
       </c>
       <c r="T18">
-        <v>1.00030755631289</v>
+        <v>0.9987786501012574</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.046590597964189</v>
+      </c>
+      <c r="D19">
+        <v>0.9548581504221012</v>
+      </c>
+      <c r="E19">
+        <v>1.046590597964189</v>
+      </c>
+      <c r="F19">
+        <v>0.9985099877865384</v>
+      </c>
+      <c r="G19">
+        <v>0.9855075905604759</v>
+      </c>
+      <c r="H19">
+        <v>1.042504283103904</v>
+      </c>
+      <c r="I19">
+        <v>0.9507675926875164</v>
+      </c>
+      <c r="J19">
+        <v>0.9548581504221012</v>
+      </c>
+      <c r="K19">
+        <v>0.9548581504221012</v>
+      </c>
+      <c r="L19">
+        <v>0.9985099877865384</v>
+      </c>
+      <c r="M19">
+        <v>1.022550292875364</v>
+      </c>
+      <c r="N19">
+        <v>1.022550292875364</v>
+      </c>
+      <c r="O19">
+        <v>1.029201622951544</v>
+      </c>
+      <c r="P19">
+        <v>0.9999862453909429</v>
+      </c>
+      <c r="Q19">
+        <v>0.9999862453909429</v>
+      </c>
+      <c r="R19">
+        <v>0.9887042216487325</v>
+      </c>
+      <c r="S19">
+        <v>0.9887042216487325</v>
+      </c>
+      <c r="T19">
+        <v>0.9964563670874543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000534157659648</v>
+      </c>
+      <c r="D20">
+        <v>0.9989500255424507</v>
+      </c>
+      <c r="E20">
+        <v>1.000534157659648</v>
+      </c>
+      <c r="F20">
+        <v>1.000345701989874</v>
+      </c>
+      <c r="G20">
+        <v>0.9999387038701325</v>
+      </c>
+      <c r="H20">
+        <v>1.00005893078789</v>
+      </c>
+      <c r="I20">
+        <v>1.001022209740836</v>
+      </c>
+      <c r="J20">
+        <v>0.9989500255424507</v>
+      </c>
+      <c r="K20">
+        <v>0.9989500255424507</v>
+      </c>
+      <c r="L20">
+        <v>1.000345701989874</v>
+      </c>
+      <c r="M20">
+        <v>1.000439929824761</v>
+      </c>
+      <c r="N20">
+        <v>1.000439929824761</v>
+      </c>
+      <c r="O20">
+        <v>1.000312930145804</v>
+      </c>
+      <c r="P20">
+        <v>0.9999432950639912</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999432950639912</v>
+      </c>
+      <c r="R20">
+        <v>0.999694977683606</v>
+      </c>
+      <c r="S20">
+        <v>0.999694977683606</v>
+      </c>
+      <c r="T20">
+        <v>1.000141621598472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9996075416414903</v>
+      </c>
+      <c r="D21">
+        <v>1.001066541341423</v>
+      </c>
+      <c r="E21">
+        <v>0.9996075416414903</v>
+      </c>
+      <c r="F21">
+        <v>0.9995251202634059</v>
+      </c>
+      <c r="G21">
+        <v>0.9999677482725299</v>
+      </c>
+      <c r="H21">
+        <v>1.000330404070149</v>
+      </c>
+      <c r="I21">
+        <v>0.9979167865750056</v>
+      </c>
+      <c r="J21">
+        <v>1.001066541341423</v>
+      </c>
+      <c r="K21">
+        <v>1.001066541341423</v>
+      </c>
+      <c r="L21">
+        <v>0.9995251202634059</v>
+      </c>
+      <c r="M21">
+        <v>0.9995663309524481</v>
+      </c>
+      <c r="N21">
+        <v>0.9995663309524481</v>
+      </c>
+      <c r="O21">
+        <v>0.9998210219916818</v>
+      </c>
+      <c r="P21">
+        <v>1.000066401082106</v>
+      </c>
+      <c r="Q21">
+        <v>1.000066401082107</v>
+      </c>
+      <c r="R21">
+        <v>1.000316436146936</v>
+      </c>
+      <c r="S21">
+        <v>1.000316436146936</v>
+      </c>
+      <c r="T21">
+        <v>0.9997356903606672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.003071315005669</v>
+      </c>
+      <c r="D22">
+        <v>0.99640075493556</v>
+      </c>
+      <c r="E22">
+        <v>1.003071315005669</v>
+      </c>
+      <c r="F22">
+        <v>1.000494621643663</v>
+      </c>
+      <c r="G22">
+        <v>0.9992770788277703</v>
+      </c>
+      <c r="H22">
+        <v>1.001521624379173</v>
+      </c>
+      <c r="I22">
+        <v>1.0010799430855</v>
+      </c>
+      <c r="J22">
+        <v>0.99640075493556</v>
+      </c>
+      <c r="K22">
+        <v>0.99640075493556</v>
+      </c>
+      <c r="L22">
+        <v>1.000494621643663</v>
+      </c>
+      <c r="M22">
+        <v>1.001782968324666</v>
+      </c>
+      <c r="N22">
+        <v>1.001782968324666</v>
+      </c>
+      <c r="O22">
+        <v>1.001695853676169</v>
+      </c>
+      <c r="P22">
+        <v>0.9999888971949643</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999888971949643</v>
+      </c>
+      <c r="R22">
+        <v>0.9990918616301132</v>
+      </c>
+      <c r="S22">
+        <v>0.9990918616301132</v>
+      </c>
+      <c r="T22">
+        <v>1.00030755631289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.009256885601866</v>
+      </c>
+      <c r="D23">
         <v>0.9867579692441799</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>1.009256885601866</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>1.002702869708579</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>0.9980629179897645</v>
+      </c>
+      <c r="H23">
+        <v>1.003855250572879</v>
+      </c>
+      <c r="I23">
+        <v>1.007228660885469</v>
+      </c>
+      <c r="J23">
         <v>0.9867579692441799</v>
       </c>
-      <c r="G19">
-        <v>1.007228660885469</v>
-      </c>
-      <c r="H19">
-        <v>1.003855250572879</v>
-      </c>
-      <c r="I19">
-        <v>0.9980629179897645</v>
-      </c>
-      <c r="J19">
-        <v>1.009256885601866</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9867579692441799</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.002702869708579</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.005979877655222</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.005979877655222</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.005271668627775</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995725748515415</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9995725748515415</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9963689234497011</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9963689234497011</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.001310759000456</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004230831194785</v>
+        <v>1.05469821455763</v>
       </c>
       <c r="D3">
-        <v>0.9972013251289744</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="E3">
-        <v>1.004230831194785</v>
+        <v>1.05469821455763</v>
       </c>
       <c r="F3">
-        <v>0.998894244601954</v>
+        <v>0.9926296894452459</v>
       </c>
       <c r="G3">
-        <v>0.9983576674893676</v>
+        <v>0.9842695507492816</v>
       </c>
       <c r="H3">
-        <v>1.004632657920513</v>
+        <v>1.042414548775214</v>
       </c>
       <c r="I3">
-        <v>0.9933138203287366</v>
+        <v>0.9467216370028798</v>
       </c>
       <c r="J3">
-        <v>0.9972013251289744</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="K3">
-        <v>0.9972013251289744</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="L3">
-        <v>0.998894244601954</v>
+        <v>0.9926296894452459</v>
       </c>
       <c r="M3">
-        <v>1.001562537898369</v>
+        <v>1.023663952001438</v>
       </c>
       <c r="N3">
-        <v>1.001562537898369</v>
+        <v>1.023663952001438</v>
       </c>
       <c r="O3">
-        <v>1.002585911239084</v>
+        <v>1.02991415092603</v>
       </c>
       <c r="P3">
-        <v>1.000108800308571</v>
+        <v>1.004092851127761</v>
       </c>
       <c r="Q3">
-        <v>1.000108800308571</v>
+        <v>1.00409285112776</v>
       </c>
       <c r="R3">
-        <v>0.9993819315136717</v>
+        <v>0.994307300690922</v>
       </c>
       <c r="S3">
-        <v>0.9993819315136717</v>
+        <v>0.994307300690922</v>
       </c>
       <c r="T3">
-        <v>0.999438424444055</v>
+        <v>0.997614048318443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008474939462289</v>
+        <v>1.054864103260714</v>
       </c>
       <c r="D4">
-        <v>0.994972988736445</v>
+        <v>0.9665320213203487</v>
       </c>
       <c r="E4">
-        <v>1.008474939462289</v>
+        <v>1.054864103260714</v>
       </c>
       <c r="F4">
-        <v>0.9976693451671204</v>
+        <v>0.9924135832193355</v>
       </c>
       <c r="G4">
-        <v>0.9968041565392982</v>
+        <v>0.9846305404658986</v>
       </c>
       <c r="H4">
-        <v>1.008891691254106</v>
+        <v>1.040462536746185</v>
       </c>
       <c r="I4">
-        <v>0.9870027421248593</v>
+        <v>0.9508713956857997</v>
       </c>
       <c r="J4">
-        <v>0.994972988736445</v>
+        <v>0.9665320213203487</v>
       </c>
       <c r="K4">
-        <v>0.994972988736445</v>
+        <v>0.9665320213203487</v>
       </c>
       <c r="L4">
-        <v>0.9976693451671204</v>
+        <v>0.9924135832193355</v>
       </c>
       <c r="M4">
-        <v>1.003072142314705</v>
+        <v>1.023638843240025</v>
       </c>
       <c r="N4">
-        <v>1.003072142314705</v>
+        <v>1.023638843240025</v>
       </c>
       <c r="O4">
-        <v>1.005011991961172</v>
+        <v>1.029246741075411</v>
       </c>
       <c r="P4">
-        <v>1.000372424455285</v>
+        <v>1.004603235933466</v>
       </c>
       <c r="Q4">
-        <v>1.000372424455285</v>
+        <v>1.004603235933466</v>
       </c>
       <c r="R4">
-        <v>0.9990225655255749</v>
+        <v>0.9950854322801866</v>
       </c>
       <c r="S4">
-        <v>0.9990225655255749</v>
+        <v>0.9950854322801866</v>
       </c>
       <c r="T4">
-        <v>0.9989693105473529</v>
+        <v>0.998295696783047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.015863727358234</v>
+        <v>1.054351078873318</v>
       </c>
       <c r="D5">
-        <v>0.9895246062903952</v>
+        <v>0.9622050593800544</v>
       </c>
       <c r="E5">
-        <v>1.015863727358234</v>
+        <v>1.054351078873318</v>
       </c>
       <c r="F5">
-        <v>0.9959446767899475</v>
+        <v>0.9929450160646903</v>
       </c>
       <c r="G5">
-        <v>0.9939065471118096</v>
+        <v>0.9835884445822106</v>
       </c>
       <c r="H5">
-        <v>1.017122372849945</v>
+        <v>1.046100477628034</v>
       </c>
       <c r="I5">
-        <v>0.9754717977936168</v>
+        <v>0.9386445940970342</v>
       </c>
       <c r="J5">
-        <v>0.9895246062903952</v>
+        <v>0.9622050593800544</v>
       </c>
       <c r="K5">
-        <v>0.9895246062903952</v>
+        <v>0.9622050593800544</v>
       </c>
       <c r="L5">
-        <v>0.9959446767899475</v>
+        <v>0.9929450160646903</v>
       </c>
       <c r="M5">
-        <v>1.005904202074091</v>
+        <v>1.023648047469004</v>
       </c>
       <c r="N5">
-        <v>1.005904202074091</v>
+        <v>1.023648047469004</v>
       </c>
       <c r="O5">
-        <v>1.009643592332709</v>
+        <v>1.031132190855347</v>
       </c>
       <c r="P5">
-        <v>1.000444336812859</v>
+        <v>1.003167051439354</v>
       </c>
       <c r="Q5">
-        <v>1.000444336812859</v>
+        <v>1.003167051439354</v>
       </c>
       <c r="R5">
-        <v>0.997714404182243</v>
+        <v>0.9929265534245293</v>
       </c>
       <c r="S5">
-        <v>0.997714404182243</v>
+        <v>0.9929265534245293</v>
       </c>
       <c r="T5">
-        <v>0.9979722880323246</v>
+        <v>0.9963057784375567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.022789084751872</v>
+        <v>1.053988790125001</v>
       </c>
       <c r="D6">
-        <v>0.9844819857434829</v>
+        <v>0.9599478497727275</v>
       </c>
       <c r="E6">
-        <v>1.022789084751872</v>
+        <v>1.053988790125001</v>
       </c>
       <c r="F6">
-        <v>0.9940775297898654</v>
+        <v>0.9931263689772729</v>
       </c>
       <c r="G6">
-        <v>0.9909137469572635</v>
+        <v>0.9829577875</v>
       </c>
       <c r="H6">
-        <v>1.025247436519778</v>
+        <v>1.049516858068182</v>
       </c>
       <c r="I6">
-        <v>0.9645614949396231</v>
+        <v>0.9308697643750001</v>
       </c>
       <c r="J6">
-        <v>0.9844819857434829</v>
+        <v>0.9599478497727275</v>
       </c>
       <c r="K6">
-        <v>0.9844819857434829</v>
+        <v>0.9599478497727275</v>
       </c>
       <c r="L6">
-        <v>0.9940775297898654</v>
+        <v>0.9931263689772729</v>
       </c>
       <c r="M6">
-        <v>1.008433307270868</v>
+        <v>1.023557579551137</v>
       </c>
       <c r="N6">
-        <v>1.008433307270868</v>
+        <v>1.023557579551137</v>
       </c>
       <c r="O6">
-        <v>1.014038017020505</v>
+        <v>1.032210672390152</v>
       </c>
       <c r="P6">
-        <v>1.000449533428407</v>
+        <v>1.002354336291667</v>
       </c>
       <c r="Q6">
-        <v>1.000449533428407</v>
+        <v>1.002354336291667</v>
       </c>
       <c r="R6">
-        <v>0.9964576465071757</v>
+        <v>0.9917527146619322</v>
       </c>
       <c r="S6">
-        <v>0.9964576465071757</v>
+        <v>0.9917527146619322</v>
       </c>
       <c r="T6">
-        <v>0.9970118797836474</v>
+        <v>0.995067903136364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000246285814935</v>
+        <v>0.391849448767875</v>
       </c>
       <c r="D7">
-        <v>0.9998233504968853</v>
+        <v>1.331006959325483</v>
       </c>
       <c r="E7">
-        <v>1.000246285814935</v>
+        <v>0.391849448767875</v>
       </c>
       <c r="F7">
-        <v>0.9999622415555829</v>
+        <v>1.067575204658075</v>
       </c>
       <c r="G7">
-        <v>0.9999173699447712</v>
+        <v>1.144692306851631</v>
       </c>
       <c r="H7">
-        <v>1.00025413384501</v>
+        <v>0.6906235526318067</v>
       </c>
       <c r="I7">
-        <v>0.9995882304509653</v>
+        <v>1.174414746076105</v>
       </c>
       <c r="J7">
-        <v>0.9998233504968853</v>
+        <v>1.331006959325483</v>
       </c>
       <c r="K7">
-        <v>0.9998233504968853</v>
+        <v>1.331006959325483</v>
       </c>
       <c r="L7">
-        <v>0.9999622415555829</v>
+        <v>1.067575204658075</v>
       </c>
       <c r="M7">
-        <v>1.000104263685259</v>
+        <v>0.7297123267129748</v>
       </c>
       <c r="N7">
-        <v>1.000104263685259</v>
+        <v>0.7297123267129748</v>
       </c>
       <c r="O7">
-        <v>1.000154220405176</v>
+        <v>0.7166827353525855</v>
       </c>
       <c r="P7">
-        <v>1.000010625955801</v>
+        <v>0.930143870917144</v>
       </c>
       <c r="Q7">
-        <v>1.000010625955801</v>
+        <v>0.930143870917144</v>
       </c>
       <c r="R7">
-        <v>0.999963807091072</v>
+        <v>1.030359643019229</v>
       </c>
       <c r="S7">
-        <v>0.999963807091072</v>
+        <v>1.030359643019229</v>
       </c>
       <c r="T7">
-        <v>0.9999652686846915</v>
+        <v>0.9666937030518293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000230543034341</v>
+        <v>0.3947645406935399</v>
       </c>
       <c r="D8">
-        <v>0.9998851713421809</v>
+        <v>1.329820643972631</v>
       </c>
       <c r="E8">
-        <v>1.000230543034341</v>
+        <v>0.3947645406935399</v>
       </c>
       <c r="F8">
-        <v>0.9998972034668279</v>
+        <v>1.066967673437643</v>
       </c>
       <c r="G8">
-        <v>0.9998799495065035</v>
+        <v>1.143890135578302</v>
       </c>
       <c r="H8">
-        <v>1.00043230297587</v>
+        <v>0.69258926200857</v>
       </c>
       <c r="I8">
-        <v>0.9990238535250189</v>
+        <v>1.171854135025386</v>
       </c>
       <c r="J8">
-        <v>0.9998851713421809</v>
+        <v>1.329820643972631</v>
       </c>
       <c r="K8">
-        <v>0.9998851713421809</v>
+        <v>1.329820643972631</v>
       </c>
       <c r="L8">
-        <v>0.9998972034668279</v>
+        <v>1.066967673437643</v>
       </c>
       <c r="M8">
-        <v>1.000063873250584</v>
+        <v>0.7308661070655912</v>
       </c>
       <c r="N8">
-        <v>1.000063873250584</v>
+        <v>0.7308661070655912</v>
       </c>
       <c r="O8">
-        <v>1.000186683159013</v>
+        <v>0.7181071587132508</v>
       </c>
       <c r="P8">
-        <v>1.000004305947783</v>
+        <v>0.9305176193679378</v>
       </c>
       <c r="Q8">
-        <v>1.000004305947783</v>
+        <v>0.9305176193679378</v>
       </c>
       <c r="R8">
-        <v>0.9999745222963826</v>
+        <v>1.030343375519111</v>
       </c>
       <c r="S8">
-        <v>0.9999745222963826</v>
+        <v>1.030343375519111</v>
       </c>
       <c r="T8">
-        <v>0.9998915039751237</v>
+        <v>0.9666477317860118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000203337606563</v>
+        <v>0.397893058215338</v>
       </c>
       <c r="D9">
-        <v>1.00036521036794</v>
+        <v>1.327344501206824</v>
       </c>
       <c r="E9">
-        <v>1.000203337606563</v>
+        <v>0.397893058215338</v>
       </c>
       <c r="F9">
-        <v>0.9996595719333589</v>
+        <v>1.066928147425581</v>
       </c>
       <c r="G9">
-        <v>0.9998491921503623</v>
+        <v>1.143122093133742</v>
       </c>
       <c r="H9">
-        <v>1.000530921048608</v>
+        <v>0.6944843813022815</v>
       </c>
       <c r="I9">
-        <v>0.9983570218074885</v>
+        <v>1.17055863057388</v>
       </c>
       <c r="J9">
-        <v>1.00036521036794</v>
+        <v>1.327344501206824</v>
       </c>
       <c r="K9">
-        <v>1.00036521036794</v>
+        <v>1.327344501206824</v>
       </c>
       <c r="L9">
-        <v>0.9996595719333589</v>
+        <v>1.066928147425581</v>
       </c>
       <c r="M9">
-        <v>0.9999314547699609</v>
+        <v>0.7324106028204593</v>
       </c>
       <c r="N9">
-        <v>0.9999314547699609</v>
+        <v>0.7324106028204593</v>
       </c>
       <c r="O9">
-        <v>1.000131276862843</v>
+        <v>0.7197685289810667</v>
       </c>
       <c r="P9">
-        <v>1.000076039969287</v>
+        <v>0.9307219022825809</v>
       </c>
       <c r="Q9">
-        <v>1.000076039969287</v>
+        <v>0.9307219022825809</v>
       </c>
       <c r="R9">
-        <v>1.00014833256895</v>
+        <v>1.029877552013642</v>
       </c>
       <c r="S9">
-        <v>1.00014833256895</v>
+        <v>1.029877552013642</v>
       </c>
       <c r="T9">
-        <v>0.9998275424857201</v>
+        <v>0.9667218019762744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000530458879136</v>
+        <v>0.4015061281091095</v>
       </c>
       <c r="D10">
-        <v>1.000130433645545</v>
+        <v>1.328741610696528</v>
       </c>
       <c r="E10">
-        <v>1.000530458879136</v>
+        <v>0.4015061281091095</v>
       </c>
       <c r="F10">
-        <v>0.999509384116756</v>
+        <v>1.06493140495732</v>
       </c>
       <c r="G10">
-        <v>0.9996541066125855</v>
+        <v>1.142022803174434</v>
       </c>
       <c r="H10">
-        <v>1.001246081000591</v>
+        <v>0.6970973927799805</v>
       </c>
       <c r="I10">
-        <v>0.9967911005871375</v>
+        <v>1.164369720850659</v>
       </c>
       <c r="J10">
-        <v>1.000130433645545</v>
+        <v>1.328741610696528</v>
       </c>
       <c r="K10">
-        <v>1.000130433645545</v>
+        <v>1.328741610696528</v>
       </c>
       <c r="L10">
-        <v>0.999509384116756</v>
+        <v>1.06493140495732</v>
       </c>
       <c r="M10">
-        <v>1.000019921497946</v>
+        <v>0.7332187665332145</v>
       </c>
       <c r="N10">
-        <v>1.000019921497946</v>
+        <v>0.7332187665332145</v>
       </c>
       <c r="O10">
-        <v>1.000428641332161</v>
+        <v>0.7211783086154698</v>
       </c>
       <c r="P10">
-        <v>1.000056758880479</v>
+        <v>0.9317263812543191</v>
       </c>
       <c r="Q10">
-        <v>1.000056758880479</v>
+        <v>0.9317263812543191</v>
       </c>
       <c r="R10">
-        <v>1.000075177571746</v>
+        <v>1.030980188614871</v>
       </c>
       <c r="S10">
-        <v>1.000075177571746</v>
+        <v>1.030980188614871</v>
       </c>
       <c r="T10">
-        <v>0.9996435941402918</v>
+        <v>0.9664448434280052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000219319420811</v>
+        <v>1.002116025418314</v>
       </c>
       <c r="D11">
-        <v>1.001952154240781</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="E11">
-        <v>1.000219319420811</v>
+        <v>1.002116025418314</v>
       </c>
       <c r="F11">
-        <v>0.9986509052677405</v>
+        <v>0.9984102613517343</v>
       </c>
       <c r="G11">
-        <v>0.9995516739569578</v>
+        <v>0.9988092067297222</v>
       </c>
       <c r="H11">
-        <v>1.001730087651866</v>
+        <v>1.003650713727027</v>
       </c>
       <c r="I11">
-        <v>0.9937232785541932</v>
+        <v>0.9924382034439863</v>
       </c>
       <c r="J11">
-        <v>1.001952154240781</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="K11">
-        <v>1.001952154240781</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="L11">
-        <v>0.9986509052677405</v>
+        <v>0.9984102613517343</v>
       </c>
       <c r="M11">
-        <v>0.9994351123442757</v>
+        <v>1.000263143385024</v>
       </c>
       <c r="N11">
-        <v>0.9994351123442757</v>
+        <v>1.000263143385024</v>
       </c>
       <c r="O11">
-        <v>1.000200104113472</v>
+        <v>1.001392333499025</v>
       </c>
       <c r="P11">
-        <v>1.000274126309778</v>
+        <v>1.00013081217546</v>
       </c>
       <c r="Q11">
-        <v>1.000274126309778</v>
+        <v>1.00013081217546</v>
       </c>
       <c r="R11">
-        <v>1.000693633292528</v>
+        <v>1.000064646570678</v>
       </c>
       <c r="S11">
-        <v>1.000693633292528</v>
+        <v>1.000064646570678</v>
       </c>
       <c r="T11">
-        <v>0.999304569848725</v>
+        <v>0.9992150934045192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9739418494671106</v>
+        <v>0.9992284431940519</v>
       </c>
       <c r="D12">
-        <v>1.017233168394421</v>
+        <v>0.9999570041867041</v>
       </c>
       <c r="E12">
-        <v>0.9739418494671106</v>
+        <v>0.9992284431940519</v>
       </c>
       <c r="F12">
-        <v>0.9920924749330989</v>
+        <v>0.9999325249641872</v>
       </c>
       <c r="G12">
-        <v>0.9994910868143071</v>
+        <v>0.9999230794270179</v>
       </c>
       <c r="H12">
-        <v>1.017984232218535</v>
+        <v>1.000674188225797</v>
       </c>
       <c r="I12">
-        <v>0.9212251918791787</v>
+        <v>0.9980214940668727</v>
       </c>
       <c r="J12">
-        <v>1.017233168394421</v>
+        <v>0.9999570041867041</v>
       </c>
       <c r="K12">
-        <v>1.017233168394421</v>
+        <v>0.9999570041867041</v>
       </c>
       <c r="L12">
-        <v>0.9920924749330989</v>
+        <v>0.9999325249641872</v>
       </c>
       <c r="M12">
-        <v>0.9830171622001047</v>
+        <v>0.9995804840791196</v>
       </c>
       <c r="N12">
-        <v>0.9830171622001047</v>
+        <v>0.9995804840791196</v>
       </c>
       <c r="O12">
-        <v>0.9946728522062479</v>
+        <v>0.9999450521280121</v>
       </c>
       <c r="P12">
-        <v>0.99442249759821</v>
+        <v>0.9997059907816478</v>
       </c>
       <c r="Q12">
-        <v>0.99442249759821</v>
+        <v>0.9997059907816478</v>
       </c>
       <c r="R12">
-        <v>1.000125165297263</v>
+        <v>0.9997687441329118</v>
       </c>
       <c r="S12">
-        <v>1.000125165297263</v>
+        <v>0.9997687441329118</v>
       </c>
       <c r="T12">
-        <v>0.9869946672844417</v>
+        <v>0.9996227890107717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.055415523077768</v>
+        <v>0.9968657707646169</v>
       </c>
       <c r="D13">
-        <v>1.001662564591766</v>
+        <v>0.9988307526940078</v>
       </c>
       <c r="E13">
-        <v>1.055415523077768</v>
+        <v>0.9968657707646169</v>
       </c>
       <c r="F13">
-        <v>0.9861804254626093</v>
+        <v>1.000450119756558</v>
       </c>
       <c r="G13">
-        <v>0.9906513288027442</v>
+        <v>0.9999416772441824</v>
       </c>
       <c r="H13">
-        <v>1.003341934373201</v>
+        <v>1.001894469520181</v>
       </c>
       <c r="I13">
-        <v>1.029773688224776</v>
+        <v>0.9947504809607783</v>
       </c>
       <c r="J13">
-        <v>1.001662564591766</v>
+        <v>0.9988307526940078</v>
       </c>
       <c r="K13">
-        <v>1.001662564591766</v>
+        <v>0.9988307526940078</v>
       </c>
       <c r="L13">
-        <v>0.9861804254626093</v>
+        <v>1.000450119756558</v>
       </c>
       <c r="M13">
-        <v>1.020797974270188</v>
+        <v>0.9986579452605874</v>
       </c>
       <c r="N13">
-        <v>1.020797974270188</v>
+        <v>0.9986579452605874</v>
       </c>
       <c r="O13">
-        <v>1.014979294304526</v>
+        <v>0.999736786680452</v>
       </c>
       <c r="P13">
-        <v>1.014419504377381</v>
+        <v>0.9987155477383941</v>
       </c>
       <c r="Q13">
-        <v>1.014419504377381</v>
+        <v>0.9987155477383941</v>
       </c>
       <c r="R13">
-        <v>1.011230269430977</v>
+        <v>0.9987443489772976</v>
       </c>
       <c r="S13">
-        <v>1.011230269430977</v>
+        <v>0.9987443489772976</v>
       </c>
       <c r="T13">
-        <v>1.011170910755477</v>
+        <v>0.9987888784900542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.421533642546747</v>
+        <v>1.012203282167358</v>
       </c>
       <c r="D14">
-        <v>0.6909695004160497</v>
+        <v>0.9922554701751981</v>
       </c>
       <c r="E14">
-        <v>1.421533642546747</v>
+        <v>1.012203282167358</v>
       </c>
       <c r="F14">
-        <v>1.021658297021128</v>
+        <v>0.996902356257624</v>
       </c>
       <c r="G14">
-        <v>0.9254290813736291</v>
+        <v>0.9954420261028365</v>
       </c>
       <c r="H14">
-        <v>1.11234435219816</v>
+        <v>1.012755718042108</v>
       </c>
       <c r="I14">
-        <v>1.203959045191977</v>
+        <v>0.9816905536661074</v>
       </c>
       <c r="J14">
-        <v>0.6909695004160497</v>
+        <v>0.9922554701751981</v>
       </c>
       <c r="K14">
-        <v>0.6909695004160497</v>
+        <v>0.9922554701751981</v>
       </c>
       <c r="L14">
-        <v>1.021658297021128</v>
+        <v>0.996902356257624</v>
       </c>
       <c r="M14">
-        <v>1.221595969783937</v>
+        <v>1.004552819212491</v>
       </c>
       <c r="N14">
-        <v>1.221595969783937</v>
+        <v>1.004552819212491</v>
       </c>
       <c r="O14">
-        <v>1.185178763922011</v>
+        <v>1.007287118822363</v>
       </c>
       <c r="P14">
-        <v>1.044720479994641</v>
+        <v>1.000453702866727</v>
       </c>
       <c r="Q14">
-        <v>1.044720479994641</v>
+        <v>1.000453702866727</v>
       </c>
       <c r="R14">
-        <v>0.9562827350999934</v>
+        <v>0.9984041446938444</v>
       </c>
       <c r="S14">
-        <v>0.9562827350999934</v>
+        <v>0.9984041446938444</v>
       </c>
       <c r="T14">
-        <v>1.062648986457948</v>
+        <v>0.9985415677352053</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.920870893691443</v>
+        <v>1.004230831194785</v>
       </c>
       <c r="D15">
-        <v>1.07046845127991</v>
+        <v>0.9972013251289744</v>
       </c>
       <c r="E15">
-        <v>0.920870893691443</v>
+        <v>1.004230831194785</v>
       </c>
       <c r="F15">
-        <v>0.9766149069511636</v>
+        <v>0.998894244601954</v>
       </c>
       <c r="G15">
-        <v>1.003922125850108</v>
+        <v>0.9983576674893676</v>
       </c>
       <c r="H15">
-        <v>1.028704240038631</v>
+        <v>1.004632657920513</v>
       </c>
       <c r="I15">
-        <v>0.8115541720883946</v>
+        <v>0.9933138203287366</v>
       </c>
       <c r="J15">
-        <v>1.07046845127991</v>
+        <v>0.9972013251289744</v>
       </c>
       <c r="K15">
-        <v>1.07046845127991</v>
+        <v>0.9972013251289744</v>
       </c>
       <c r="L15">
-        <v>0.9766149069511636</v>
+        <v>0.998894244601954</v>
       </c>
       <c r="M15">
-        <v>0.9487429003213033</v>
+        <v>1.001562537898369</v>
       </c>
       <c r="N15">
-        <v>0.9487429003213033</v>
+        <v>1.001562537898369</v>
       </c>
       <c r="O15">
-        <v>0.9753966802270791</v>
+        <v>1.002585911239084</v>
       </c>
       <c r="P15">
-        <v>0.9893180839741721</v>
+        <v>1.000108800308571</v>
       </c>
       <c r="Q15">
-        <v>0.9893180839741721</v>
+        <v>1.000108800308571</v>
       </c>
       <c r="R15">
-        <v>1.009605675800607</v>
+        <v>0.9993819315136717</v>
       </c>
       <c r="S15">
-        <v>1.009605675800607</v>
+        <v>0.9993819315136717</v>
       </c>
       <c r="T15">
-        <v>0.9686891316499415</v>
+        <v>0.999438424444055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.092347869418189</v>
+        <v>1.008474939462289</v>
       </c>
       <c r="D16">
-        <v>0.9468799187466183</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="E16">
-        <v>1.092347869418189</v>
+        <v>1.008474939462289</v>
       </c>
       <c r="F16">
-        <v>0.9765572765888236</v>
+        <v>0.9976693451671204</v>
       </c>
       <c r="G16">
-        <v>0.9672459996548003</v>
+        <v>0.9968041565392982</v>
       </c>
       <c r="H16">
-        <v>1.089408740135984</v>
+        <v>1.008891691254106</v>
       </c>
       <c r="I16">
-        <v>0.8738226774947342</v>
+        <v>0.9870027421248593</v>
       </c>
       <c r="J16">
-        <v>0.9468799187466183</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="K16">
-        <v>0.9468799187466183</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="L16">
-        <v>0.9765572765888236</v>
+        <v>0.9976693451671204</v>
       </c>
       <c r="M16">
-        <v>1.034452573003506</v>
+        <v>1.003072142314705</v>
       </c>
       <c r="N16">
-        <v>1.034452573003506</v>
+        <v>1.003072142314705</v>
       </c>
       <c r="O16">
-        <v>1.052771295380999</v>
+        <v>1.005011991961172</v>
       </c>
       <c r="P16">
-        <v>1.00526168825121</v>
+        <v>1.000372424455285</v>
       </c>
       <c r="Q16">
-        <v>1.00526168825121</v>
+        <v>1.000372424455285</v>
       </c>
       <c r="R16">
-        <v>0.9906662458750621</v>
+        <v>0.9990225655255749</v>
       </c>
       <c r="S16">
-        <v>0.9906662458750621</v>
+        <v>0.9990225655255749</v>
       </c>
       <c r="T16">
-        <v>0.9910437470065249</v>
+        <v>0.9989693105473529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.079936830280888</v>
+        <v>1.015863727358234</v>
       </c>
       <c r="D17">
-        <v>0.9540380629758377</v>
+        <v>0.9895246062903952</v>
       </c>
       <c r="E17">
-        <v>1.079936830280888</v>
+        <v>1.015863727358234</v>
       </c>
       <c r="F17">
-        <v>0.9816859087403257</v>
+        <v>0.9959446767899475</v>
       </c>
       <c r="G17">
-        <v>0.9731187168007897</v>
+        <v>0.9939065471118096</v>
       </c>
       <c r="H17">
-        <v>1.072602576060935</v>
+        <v>1.017122372849945</v>
       </c>
       <c r="I17">
-        <v>0.9004130341797943</v>
+        <v>0.9754717977936168</v>
       </c>
       <c r="J17">
-        <v>0.9540380629758377</v>
+        <v>0.9895246062903952</v>
       </c>
       <c r="K17">
-        <v>0.9540380629758377</v>
+        <v>0.9895246062903952</v>
       </c>
       <c r="L17">
-        <v>0.9816859087403257</v>
+        <v>0.9959446767899475</v>
       </c>
       <c r="M17">
-        <v>1.030811369510607</v>
+        <v>1.005904202074091</v>
       </c>
       <c r="N17">
-        <v>1.030811369510607</v>
+        <v>1.005904202074091</v>
       </c>
       <c r="O17">
-        <v>1.044741771694049</v>
+        <v>1.009643592332709</v>
       </c>
       <c r="P17">
-        <v>1.00522026733235</v>
+        <v>1.000444336812859</v>
       </c>
       <c r="Q17">
-        <v>1.00522026733235</v>
+        <v>1.000444336812859</v>
       </c>
       <c r="R17">
-        <v>0.9924247162432223</v>
+        <v>0.997714404182243</v>
       </c>
       <c r="S17">
-        <v>0.9924247162432223</v>
+        <v>0.997714404182243</v>
       </c>
       <c r="T17">
-        <v>0.9936325215064284</v>
+        <v>0.9979722880323246</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.05438730334865</v>
+        <v>1.022789084751872</v>
       </c>
       <c r="D18">
-        <v>0.9692413649122372</v>
+        <v>0.9844819857434829</v>
       </c>
       <c r="E18">
-        <v>1.05438730334865</v>
+        <v>1.022789084751872</v>
       </c>
       <c r="F18">
-        <v>0.9918095440693057</v>
+        <v>0.9940775297898654</v>
       </c>
       <c r="G18">
-        <v>0.9850280272518374</v>
+        <v>0.9909137469572635</v>
       </c>
       <c r="H18">
-        <v>1.038557256162713</v>
+        <v>1.025247436519778</v>
       </c>
       <c r="I18">
-        <v>0.953648404862801</v>
+        <v>0.9645614949396231</v>
       </c>
       <c r="J18">
-        <v>0.9692413649122372</v>
+        <v>0.9844819857434829</v>
       </c>
       <c r="K18">
-        <v>0.9692413649122372</v>
+        <v>0.9844819857434829</v>
       </c>
       <c r="L18">
-        <v>0.9918095440693057</v>
+        <v>0.9940775297898654</v>
       </c>
       <c r="M18">
-        <v>1.023098423708978</v>
+        <v>1.008433307270868</v>
       </c>
       <c r="N18">
-        <v>1.023098423708978</v>
+        <v>1.008433307270868</v>
       </c>
       <c r="O18">
-        <v>1.028251367860223</v>
+        <v>1.014038017020505</v>
       </c>
       <c r="P18">
-        <v>1.005146070776731</v>
+        <v>1.000449533428407</v>
       </c>
       <c r="Q18">
-        <v>1.005146070776731</v>
+        <v>1.000449533428407</v>
       </c>
       <c r="R18">
-        <v>0.9961698943106074</v>
+        <v>0.9964576465071757</v>
       </c>
       <c r="S18">
-        <v>0.9961698943106074</v>
+        <v>0.9964576465071757</v>
       </c>
       <c r="T18">
-        <v>0.9987786501012574</v>
+        <v>0.9970118797836474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.046590597964189</v>
+        <v>1.000246285814935</v>
       </c>
       <c r="D19">
-        <v>0.9548581504221012</v>
+        <v>0.9998233504968853</v>
       </c>
       <c r="E19">
-        <v>1.046590597964189</v>
+        <v>1.000246285814935</v>
       </c>
       <c r="F19">
-        <v>0.9985099877865384</v>
+        <v>0.9999622415555829</v>
       </c>
       <c r="G19">
-        <v>0.9855075905604759</v>
+        <v>0.9999173699447712</v>
       </c>
       <c r="H19">
-        <v>1.042504283103904</v>
+        <v>1.00025413384501</v>
       </c>
       <c r="I19">
-        <v>0.9507675926875164</v>
+        <v>0.9995882304509653</v>
       </c>
       <c r="J19">
-        <v>0.9548581504221012</v>
+        <v>0.9998233504968853</v>
       </c>
       <c r="K19">
-        <v>0.9548581504221012</v>
+        <v>0.9998233504968853</v>
       </c>
       <c r="L19">
-        <v>0.9985099877865384</v>
+        <v>0.9999622415555829</v>
       </c>
       <c r="M19">
-        <v>1.022550292875364</v>
+        <v>1.000104263685259</v>
       </c>
       <c r="N19">
-        <v>1.022550292875364</v>
+        <v>1.000104263685259</v>
       </c>
       <c r="O19">
-        <v>1.029201622951544</v>
+        <v>1.000154220405176</v>
       </c>
       <c r="P19">
-        <v>0.9999862453909429</v>
+        <v>1.000010625955801</v>
       </c>
       <c r="Q19">
-        <v>0.9999862453909429</v>
+        <v>1.000010625955801</v>
       </c>
       <c r="R19">
-        <v>0.9887042216487325</v>
+        <v>0.999963807091072</v>
       </c>
       <c r="S19">
-        <v>0.9887042216487325</v>
+        <v>0.999963807091072</v>
       </c>
       <c r="T19">
-        <v>0.9964563670874543</v>
+        <v>0.9999652686846915</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000534157659648</v>
+        <v>1.000230543034341</v>
       </c>
       <c r="D20">
-        <v>0.9989500255424507</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="E20">
-        <v>1.000534157659648</v>
+        <v>1.000230543034341</v>
       </c>
       <c r="F20">
-        <v>1.000345701989874</v>
+        <v>0.9998972034668279</v>
       </c>
       <c r="G20">
-        <v>0.9999387038701325</v>
+        <v>0.9998799495065035</v>
       </c>
       <c r="H20">
-        <v>1.00005893078789</v>
+        <v>1.00043230297587</v>
       </c>
       <c r="I20">
-        <v>1.001022209740836</v>
+        <v>0.9990238535250189</v>
       </c>
       <c r="J20">
-        <v>0.9989500255424507</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="K20">
-        <v>0.9989500255424507</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="L20">
-        <v>1.000345701989874</v>
+        <v>0.9998972034668279</v>
       </c>
       <c r="M20">
-        <v>1.000439929824761</v>
+        <v>1.000063873250584</v>
       </c>
       <c r="N20">
-        <v>1.000439929824761</v>
+        <v>1.000063873250584</v>
       </c>
       <c r="O20">
-        <v>1.000312930145804</v>
+        <v>1.000186683159013</v>
       </c>
       <c r="P20">
-        <v>0.9999432950639912</v>
+        <v>1.000004305947783</v>
       </c>
       <c r="Q20">
-        <v>0.9999432950639912</v>
+        <v>1.000004305947783</v>
       </c>
       <c r="R20">
-        <v>0.999694977683606</v>
+        <v>0.9999745222963826</v>
       </c>
       <c r="S20">
-        <v>0.999694977683606</v>
+        <v>0.9999745222963826</v>
       </c>
       <c r="T20">
-        <v>1.000141621598472</v>
+        <v>0.9998915039751237</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9996075416414903</v>
+        <v>1.000203337606563</v>
       </c>
       <c r="D21">
-        <v>1.001066541341423</v>
+        <v>1.00036521036794</v>
       </c>
       <c r="E21">
-        <v>0.9996075416414903</v>
+        <v>1.000203337606563</v>
       </c>
       <c r="F21">
-        <v>0.9995251202634059</v>
+        <v>0.9996595719333589</v>
       </c>
       <c r="G21">
-        <v>0.9999677482725299</v>
+        <v>0.9998491921503623</v>
       </c>
       <c r="H21">
-        <v>1.000330404070149</v>
+        <v>1.000530921048608</v>
       </c>
       <c r="I21">
-        <v>0.9979167865750056</v>
+        <v>0.9983570218074885</v>
       </c>
       <c r="J21">
-        <v>1.001066541341423</v>
+        <v>1.00036521036794</v>
       </c>
       <c r="K21">
-        <v>1.001066541341423</v>
+        <v>1.00036521036794</v>
       </c>
       <c r="L21">
-        <v>0.9995251202634059</v>
+        <v>0.9996595719333589</v>
       </c>
       <c r="M21">
-        <v>0.9995663309524481</v>
+        <v>0.9999314547699609</v>
       </c>
       <c r="N21">
-        <v>0.9995663309524481</v>
+        <v>0.9999314547699609</v>
       </c>
       <c r="O21">
-        <v>0.9998210219916818</v>
+        <v>1.000131276862843</v>
       </c>
       <c r="P21">
-        <v>1.000066401082106</v>
+        <v>1.000076039969287</v>
       </c>
       <c r="Q21">
-        <v>1.000066401082107</v>
+        <v>1.000076039969287</v>
       </c>
       <c r="R21">
-        <v>1.000316436146936</v>
+        <v>1.00014833256895</v>
       </c>
       <c r="S21">
-        <v>1.000316436146936</v>
+        <v>1.00014833256895</v>
       </c>
       <c r="T21">
-        <v>0.9997356903606672</v>
+        <v>0.9998275424857201</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003071315005669</v>
+        <v>1.000530458879136</v>
       </c>
       <c r="D22">
-        <v>0.99640075493556</v>
+        <v>1.000130433645545</v>
       </c>
       <c r="E22">
-        <v>1.003071315005669</v>
+        <v>1.000530458879136</v>
       </c>
       <c r="F22">
-        <v>1.000494621643663</v>
+        <v>0.999509384116756</v>
       </c>
       <c r="G22">
-        <v>0.9992770788277703</v>
+        <v>0.9996541066125855</v>
       </c>
       <c r="H22">
-        <v>1.001521624379173</v>
+        <v>1.001246081000591</v>
       </c>
       <c r="I22">
-        <v>1.0010799430855</v>
+        <v>0.9967911005871375</v>
       </c>
       <c r="J22">
-        <v>0.99640075493556</v>
+        <v>1.000130433645545</v>
       </c>
       <c r="K22">
-        <v>0.99640075493556</v>
+        <v>1.000130433645545</v>
       </c>
       <c r="L22">
-        <v>1.000494621643663</v>
+        <v>0.999509384116756</v>
       </c>
       <c r="M22">
-        <v>1.001782968324666</v>
+        <v>1.000019921497946</v>
       </c>
       <c r="N22">
-        <v>1.001782968324666</v>
+        <v>1.000019921497946</v>
       </c>
       <c r="O22">
-        <v>1.001695853676169</v>
+        <v>1.000428641332161</v>
       </c>
       <c r="P22">
-        <v>0.9999888971949643</v>
+        <v>1.000056758880479</v>
       </c>
       <c r="Q22">
-        <v>0.9999888971949643</v>
+        <v>1.000056758880479</v>
       </c>
       <c r="R22">
-        <v>0.9990918616301132</v>
+        <v>1.000075177571746</v>
       </c>
       <c r="S22">
-        <v>0.9990918616301132</v>
+        <v>1.000075177571746</v>
       </c>
       <c r="T22">
-        <v>1.00030755631289</v>
+        <v>0.9996435941402918</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000219319420811</v>
+      </c>
+      <c r="D23">
+        <v>1.001952154240781</v>
+      </c>
+      <c r="E23">
+        <v>1.000219319420811</v>
+      </c>
+      <c r="F23">
+        <v>0.9986509052677405</v>
+      </c>
+      <c r="G23">
+        <v>0.9995516739569578</v>
+      </c>
+      <c r="H23">
+        <v>1.001730087651866</v>
+      </c>
+      <c r="I23">
+        <v>0.9937232785541932</v>
+      </c>
+      <c r="J23">
+        <v>1.001952154240781</v>
+      </c>
+      <c r="K23">
+        <v>1.001952154240781</v>
+      </c>
+      <c r="L23">
+        <v>0.9986509052677405</v>
+      </c>
+      <c r="M23">
+        <v>0.9994351123442757</v>
+      </c>
+      <c r="N23">
+        <v>0.9994351123442757</v>
+      </c>
+      <c r="O23">
+        <v>1.000200104113472</v>
+      </c>
+      <c r="P23">
+        <v>1.000274126309778</v>
+      </c>
+      <c r="Q23">
+        <v>1.000274126309778</v>
+      </c>
+      <c r="R23">
+        <v>1.000693633292528</v>
+      </c>
+      <c r="S23">
+        <v>1.000693633292528</v>
+      </c>
+      <c r="T23">
+        <v>0.999304569848725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9739418494671106</v>
+      </c>
+      <c r="D24">
+        <v>1.017233168394421</v>
+      </c>
+      <c r="E24">
+        <v>0.9739418494671106</v>
+      </c>
+      <c r="F24">
+        <v>0.9920924749330989</v>
+      </c>
+      <c r="G24">
+        <v>0.9994910868143071</v>
+      </c>
+      <c r="H24">
+        <v>1.017984232218535</v>
+      </c>
+      <c r="I24">
+        <v>0.9212251918791787</v>
+      </c>
+      <c r="J24">
+        <v>1.017233168394421</v>
+      </c>
+      <c r="K24">
+        <v>1.017233168394421</v>
+      </c>
+      <c r="L24">
+        <v>0.9920924749330989</v>
+      </c>
+      <c r="M24">
+        <v>0.9830171622001047</v>
+      </c>
+      <c r="N24">
+        <v>0.9830171622001047</v>
+      </c>
+      <c r="O24">
+        <v>0.9946728522062479</v>
+      </c>
+      <c r="P24">
+        <v>0.99442249759821</v>
+      </c>
+      <c r="Q24">
+        <v>0.99442249759821</v>
+      </c>
+      <c r="R24">
+        <v>1.000125165297263</v>
+      </c>
+      <c r="S24">
+        <v>1.000125165297263</v>
+      </c>
+      <c r="T24">
+        <v>0.9869946672844417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.055415523077768</v>
+      </c>
+      <c r="D25">
+        <v>1.001662564591766</v>
+      </c>
+      <c r="E25">
+        <v>1.055415523077768</v>
+      </c>
+      <c r="F25">
+        <v>0.9861804254626093</v>
+      </c>
+      <c r="G25">
+        <v>0.9906513288027442</v>
+      </c>
+      <c r="H25">
+        <v>1.003341934373201</v>
+      </c>
+      <c r="I25">
+        <v>1.029773688224776</v>
+      </c>
+      <c r="J25">
+        <v>1.001662564591766</v>
+      </c>
+      <c r="K25">
+        <v>1.001662564591766</v>
+      </c>
+      <c r="L25">
+        <v>0.9861804254626093</v>
+      </c>
+      <c r="M25">
+        <v>1.020797974270188</v>
+      </c>
+      <c r="N25">
+        <v>1.020797974270188</v>
+      </c>
+      <c r="O25">
+        <v>1.014979294304526</v>
+      </c>
+      <c r="P25">
+        <v>1.014419504377381</v>
+      </c>
+      <c r="Q25">
+        <v>1.014419504377381</v>
+      </c>
+      <c r="R25">
+        <v>1.011230269430977</v>
+      </c>
+      <c r="S25">
+        <v>1.011230269430977</v>
+      </c>
+      <c r="T25">
+        <v>1.011170910755477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.421533642546747</v>
+      </c>
+      <c r="D26">
+        <v>0.6909695004160497</v>
+      </c>
+      <c r="E26">
+        <v>1.421533642546747</v>
+      </c>
+      <c r="F26">
+        <v>1.021658297021128</v>
+      </c>
+      <c r="G26">
+        <v>0.9254290813736291</v>
+      </c>
+      <c r="H26">
+        <v>1.11234435219816</v>
+      </c>
+      <c r="I26">
+        <v>1.203959045191977</v>
+      </c>
+      <c r="J26">
+        <v>0.6909695004160497</v>
+      </c>
+      <c r="K26">
+        <v>0.6909695004160497</v>
+      </c>
+      <c r="L26">
+        <v>1.021658297021128</v>
+      </c>
+      <c r="M26">
+        <v>1.221595969783937</v>
+      </c>
+      <c r="N26">
+        <v>1.221595969783937</v>
+      </c>
+      <c r="O26">
+        <v>1.185178763922011</v>
+      </c>
+      <c r="P26">
+        <v>1.044720479994641</v>
+      </c>
+      <c r="Q26">
+        <v>1.044720479994641</v>
+      </c>
+      <c r="R26">
+        <v>0.9562827350999934</v>
+      </c>
+      <c r="S26">
+        <v>0.9562827350999934</v>
+      </c>
+      <c r="T26">
+        <v>1.062648986457948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.920870893691443</v>
+      </c>
+      <c r="D27">
+        <v>1.07046845127991</v>
+      </c>
+      <c r="E27">
+        <v>0.920870893691443</v>
+      </c>
+      <c r="F27">
+        <v>0.9766149069511636</v>
+      </c>
+      <c r="G27">
+        <v>1.003922125850108</v>
+      </c>
+      <c r="H27">
+        <v>1.028704240038631</v>
+      </c>
+      <c r="I27">
+        <v>0.8115541720883946</v>
+      </c>
+      <c r="J27">
+        <v>1.07046845127991</v>
+      </c>
+      <c r="K27">
+        <v>1.07046845127991</v>
+      </c>
+      <c r="L27">
+        <v>0.9766149069511636</v>
+      </c>
+      <c r="M27">
+        <v>0.9487429003213033</v>
+      </c>
+      <c r="N27">
+        <v>0.9487429003213033</v>
+      </c>
+      <c r="O27">
+        <v>0.9753966802270791</v>
+      </c>
+      <c r="P27">
+        <v>0.9893180839741721</v>
+      </c>
+      <c r="Q27">
+        <v>0.9893180839741721</v>
+      </c>
+      <c r="R27">
+        <v>1.009605675800607</v>
+      </c>
+      <c r="S27">
+        <v>1.009605675800607</v>
+      </c>
+      <c r="T27">
+        <v>0.9686891316499415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.092347869418189</v>
+      </c>
+      <c r="D28">
+        <v>0.9468799187466183</v>
+      </c>
+      <c r="E28">
+        <v>1.092347869418189</v>
+      </c>
+      <c r="F28">
+        <v>0.9765572765888236</v>
+      </c>
+      <c r="G28">
+        <v>0.9672459996548003</v>
+      </c>
+      <c r="H28">
+        <v>1.089408740135984</v>
+      </c>
+      <c r="I28">
+        <v>0.8738226774947342</v>
+      </c>
+      <c r="J28">
+        <v>0.9468799187466183</v>
+      </c>
+      <c r="K28">
+        <v>0.9468799187466183</v>
+      </c>
+      <c r="L28">
+        <v>0.9765572765888236</v>
+      </c>
+      <c r="M28">
+        <v>1.034452573003506</v>
+      </c>
+      <c r="N28">
+        <v>1.034452573003506</v>
+      </c>
+      <c r="O28">
+        <v>1.052771295380999</v>
+      </c>
+      <c r="P28">
+        <v>1.00526168825121</v>
+      </c>
+      <c r="Q28">
+        <v>1.00526168825121</v>
+      </c>
+      <c r="R28">
+        <v>0.9906662458750621</v>
+      </c>
+      <c r="S28">
+        <v>0.9906662458750621</v>
+      </c>
+      <c r="T28">
+        <v>0.9910437470065249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.079936830280888</v>
+      </c>
+      <c r="D29">
+        <v>0.9540380629758377</v>
+      </c>
+      <c r="E29">
+        <v>1.079936830280888</v>
+      </c>
+      <c r="F29">
+        <v>0.9816859087403257</v>
+      </c>
+      <c r="G29">
+        <v>0.9731187168007897</v>
+      </c>
+      <c r="H29">
+        <v>1.072602576060935</v>
+      </c>
+      <c r="I29">
+        <v>0.9004130341797943</v>
+      </c>
+      <c r="J29">
+        <v>0.9540380629758377</v>
+      </c>
+      <c r="K29">
+        <v>0.9540380629758377</v>
+      </c>
+      <c r="L29">
+        <v>0.9816859087403257</v>
+      </c>
+      <c r="M29">
+        <v>1.030811369510607</v>
+      </c>
+      <c r="N29">
+        <v>1.030811369510607</v>
+      </c>
+      <c r="O29">
+        <v>1.044741771694049</v>
+      </c>
+      <c r="P29">
+        <v>1.00522026733235</v>
+      </c>
+      <c r="Q29">
+        <v>1.00522026733235</v>
+      </c>
+      <c r="R29">
+        <v>0.9924247162432223</v>
+      </c>
+      <c r="S29">
+        <v>0.9924247162432223</v>
+      </c>
+      <c r="T29">
+        <v>0.9936325215064284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.05438730334865</v>
+      </c>
+      <c r="D30">
+        <v>0.9692413649122372</v>
+      </c>
+      <c r="E30">
+        <v>1.05438730334865</v>
+      </c>
+      <c r="F30">
+        <v>0.9918095440693057</v>
+      </c>
+      <c r="G30">
+        <v>0.9850280272518374</v>
+      </c>
+      <c r="H30">
+        <v>1.038557256162713</v>
+      </c>
+      <c r="I30">
+        <v>0.953648404862801</v>
+      </c>
+      <c r="J30">
+        <v>0.9692413649122372</v>
+      </c>
+      <c r="K30">
+        <v>0.9692413649122372</v>
+      </c>
+      <c r="L30">
+        <v>0.9918095440693057</v>
+      </c>
+      <c r="M30">
+        <v>1.023098423708978</v>
+      </c>
+      <c r="N30">
+        <v>1.023098423708978</v>
+      </c>
+      <c r="O30">
+        <v>1.028251367860223</v>
+      </c>
+      <c r="P30">
+        <v>1.005146070776731</v>
+      </c>
+      <c r="Q30">
+        <v>1.005146070776731</v>
+      </c>
+      <c r="R30">
+        <v>0.9961698943106074</v>
+      </c>
+      <c r="S30">
+        <v>0.9961698943106074</v>
+      </c>
+      <c r="T30">
+        <v>0.9987786501012574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.046590597964189</v>
+      </c>
+      <c r="D31">
+        <v>0.9548581504221012</v>
+      </c>
+      <c r="E31">
+        <v>1.046590597964189</v>
+      </c>
+      <c r="F31">
+        <v>0.9985099877865384</v>
+      </c>
+      <c r="G31">
+        <v>0.9855075905604759</v>
+      </c>
+      <c r="H31">
+        <v>1.042504283103904</v>
+      </c>
+      <c r="I31">
+        <v>0.9507675926875164</v>
+      </c>
+      <c r="J31">
+        <v>0.9548581504221012</v>
+      </c>
+      <c r="K31">
+        <v>0.9548581504221012</v>
+      </c>
+      <c r="L31">
+        <v>0.9985099877865384</v>
+      </c>
+      <c r="M31">
+        <v>1.022550292875364</v>
+      </c>
+      <c r="N31">
+        <v>1.022550292875364</v>
+      </c>
+      <c r="O31">
+        <v>1.029201622951544</v>
+      </c>
+      <c r="P31">
+        <v>0.9999862453909429</v>
+      </c>
+      <c r="Q31">
+        <v>0.9999862453909429</v>
+      </c>
+      <c r="R31">
+        <v>0.9887042216487325</v>
+      </c>
+      <c r="S31">
+        <v>0.9887042216487325</v>
+      </c>
+      <c r="T31">
+        <v>0.9964563670874543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.092595816328767</v>
+      </c>
+      <c r="D32">
+        <v>0.9540367775342465</v>
+      </c>
+      <c r="E32">
+        <v>1.092595816328767</v>
+      </c>
+      <c r="F32">
+        <v>0.9694533050684926</v>
+      </c>
+      <c r="G32">
+        <v>0.9640675676712326</v>
+      </c>
+      <c r="H32">
+        <v>1.099951597534247</v>
+      </c>
+      <c r="I32">
+        <v>0.844592319041096</v>
+      </c>
+      <c r="J32">
+        <v>0.9540367775342465</v>
+      </c>
+      <c r="K32">
+        <v>0.9540367775342465</v>
+      </c>
+      <c r="L32">
+        <v>0.9694533050684926</v>
+      </c>
+      <c r="M32">
+        <v>1.03102456069863</v>
+      </c>
+      <c r="N32">
+        <v>1.03102456069863</v>
+      </c>
+      <c r="O32">
+        <v>1.054000239643836</v>
+      </c>
+      <c r="P32">
+        <v>1.005361966310502</v>
+      </c>
+      <c r="Q32">
+        <v>1.005361966310502</v>
+      </c>
+      <c r="R32">
+        <v>0.9925306691164383</v>
+      </c>
+      <c r="S32">
+        <v>0.9925306691164383</v>
+      </c>
+      <c r="T32">
+        <v>0.9874495638630137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9706372662105263</v>
+      </c>
+      <c r="D33">
+        <v>0.8616872799999999</v>
+      </c>
+      <c r="E33">
+        <v>0.9706372662105263</v>
+      </c>
+      <c r="F33">
+        <v>1.105581433157895</v>
+      </c>
+      <c r="G33">
+        <v>1.033028472105263</v>
+      </c>
+      <c r="H33">
+        <v>0.8806752273684212</v>
+      </c>
+      <c r="I33">
+        <v>1.410406334736842</v>
+      </c>
+      <c r="J33">
+        <v>0.8616872799999999</v>
+      </c>
+      <c r="K33">
+        <v>0.8616872799999999</v>
+      </c>
+      <c r="L33">
+        <v>1.105581433157895</v>
+      </c>
+      <c r="M33">
+        <v>1.038109349684211</v>
+      </c>
+      <c r="N33">
+        <v>1.038109349684211</v>
+      </c>
+      <c r="O33">
+        <v>0.9856313089122808</v>
+      </c>
+      <c r="P33">
+        <v>0.9793019931228071</v>
+      </c>
+      <c r="Q33">
+        <v>0.9793019931228071</v>
+      </c>
+      <c r="R33">
+        <v>0.9498983148421053</v>
+      </c>
+      <c r="S33">
+        <v>0.9498983148421053</v>
+      </c>
+      <c r="T33">
+        <v>1.043669335596491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.4557892163157896</v>
+      </c>
+      <c r="D34">
+        <v>1.300482496315789</v>
+      </c>
+      <c r="E34">
+        <v>0.4557892163157896</v>
+      </c>
+      <c r="F34">
+        <v>1.055916306842105</v>
+      </c>
+      <c r="G34">
+        <v>1.127106211578947</v>
+      </c>
+      <c r="H34">
+        <v>0.7339294589473685</v>
+      </c>
+      <c r="I34">
+        <v>1.122302255263158</v>
+      </c>
+      <c r="J34">
+        <v>1.300482496315789</v>
+      </c>
+      <c r="K34">
+        <v>1.300482496315789</v>
+      </c>
+      <c r="L34">
+        <v>1.055916306842105</v>
+      </c>
+      <c r="M34">
+        <v>0.7558527615789473</v>
+      </c>
+      <c r="N34">
+        <v>0.7558527615789473</v>
+      </c>
+      <c r="O34">
+        <v>0.7485449940350878</v>
+      </c>
+      <c r="P34">
+        <v>0.937396006491228</v>
+      </c>
+      <c r="Q34">
+        <v>0.937396006491228</v>
+      </c>
+      <c r="R34">
+        <v>1.028167628947368</v>
+      </c>
+      <c r="S34">
+        <v>1.028167628947368</v>
+      </c>
+      <c r="T34">
+        <v>0.965920990877193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.1785832974116</v>
+      </c>
+      <c r="D35">
+        <v>0.8346232587942763</v>
+      </c>
+      <c r="E35">
+        <v>1.1785832974116</v>
+      </c>
+      <c r="F35">
+        <v>0.99480857997058</v>
+      </c>
+      <c r="G35">
+        <v>0.9462103605041458</v>
+      </c>
+      <c r="H35">
+        <v>1.158285714301485</v>
+      </c>
+      <c r="I35">
+        <v>0.8077168222704175</v>
+      </c>
+      <c r="J35">
+        <v>0.8346232587942763</v>
+      </c>
+      <c r="K35">
+        <v>0.8346232587942763</v>
+      </c>
+      <c r="L35">
+        <v>0.99480857997058</v>
+      </c>
+      <c r="M35">
+        <v>1.08669593869109</v>
+      </c>
+      <c r="N35">
+        <v>1.08669593869109</v>
+      </c>
+      <c r="O35">
+        <v>1.110559197227888</v>
+      </c>
+      <c r="P35">
+        <v>1.002671712058819</v>
+      </c>
+      <c r="Q35">
+        <v>1.002671712058819</v>
+      </c>
+      <c r="R35">
+        <v>0.9606595987426833</v>
+      </c>
+      <c r="S35">
+        <v>0.9606595987426833</v>
+      </c>
+      <c r="T35">
+        <v>0.9867046722087508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000534157659648</v>
+      </c>
+      <c r="D36">
+        <v>0.9989500255424507</v>
+      </c>
+      <c r="E36">
+        <v>1.000534157659648</v>
+      </c>
+      <c r="F36">
+        <v>1.000345701989874</v>
+      </c>
+      <c r="G36">
+        <v>0.9999387038701325</v>
+      </c>
+      <c r="H36">
+        <v>1.00005893078789</v>
+      </c>
+      <c r="I36">
+        <v>1.001022209740836</v>
+      </c>
+      <c r="J36">
+        <v>0.9989500255424507</v>
+      </c>
+      <c r="K36">
+        <v>0.9989500255424507</v>
+      </c>
+      <c r="L36">
+        <v>1.000345701989874</v>
+      </c>
+      <c r="M36">
+        <v>1.000439929824761</v>
+      </c>
+      <c r="N36">
+        <v>1.000439929824761</v>
+      </c>
+      <c r="O36">
+        <v>1.000312930145804</v>
+      </c>
+      <c r="P36">
+        <v>0.9999432950639912</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999432950639912</v>
+      </c>
+      <c r="R36">
+        <v>0.999694977683606</v>
+      </c>
+      <c r="S36">
+        <v>0.999694977683606</v>
+      </c>
+      <c r="T36">
+        <v>1.000141621598472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9996075416414903</v>
+      </c>
+      <c r="D37">
+        <v>1.001066541341423</v>
+      </c>
+      <c r="E37">
+        <v>0.9996075416414903</v>
+      </c>
+      <c r="F37">
+        <v>0.9995251202634059</v>
+      </c>
+      <c r="G37">
+        <v>0.9999677482725299</v>
+      </c>
+      <c r="H37">
+        <v>1.000330404070149</v>
+      </c>
+      <c r="I37">
+        <v>0.9979167865750056</v>
+      </c>
+      <c r="J37">
+        <v>1.001066541341423</v>
+      </c>
+      <c r="K37">
+        <v>1.001066541341423</v>
+      </c>
+      <c r="L37">
+        <v>0.9995251202634059</v>
+      </c>
+      <c r="M37">
+        <v>0.9995663309524481</v>
+      </c>
+      <c r="N37">
+        <v>0.9995663309524481</v>
+      </c>
+      <c r="O37">
+        <v>0.9998210219916818</v>
+      </c>
+      <c r="P37">
+        <v>1.000066401082106</v>
+      </c>
+      <c r="Q37">
+        <v>1.000066401082107</v>
+      </c>
+      <c r="R37">
+        <v>1.000316436146936</v>
+      </c>
+      <c r="S37">
+        <v>1.000316436146936</v>
+      </c>
+      <c r="T37">
+        <v>0.9997356903606672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.003071315005669</v>
+      </c>
+      <c r="D38">
+        <v>0.99640075493556</v>
+      </c>
+      <c r="E38">
+        <v>1.003071315005669</v>
+      </c>
+      <c r="F38">
+        <v>1.000494621643663</v>
+      </c>
+      <c r="G38">
+        <v>0.9992770788277703</v>
+      </c>
+      <c r="H38">
+        <v>1.001521624379173</v>
+      </c>
+      <c r="I38">
+        <v>1.0010799430855</v>
+      </c>
+      <c r="J38">
+        <v>0.99640075493556</v>
+      </c>
+      <c r="K38">
+        <v>0.99640075493556</v>
+      </c>
+      <c r="L38">
+        <v>1.000494621643663</v>
+      </c>
+      <c r="M38">
+        <v>1.001782968324666</v>
+      </c>
+      <c r="N38">
+        <v>1.001782968324666</v>
+      </c>
+      <c r="O38">
+        <v>1.001695853676169</v>
+      </c>
+      <c r="P38">
+        <v>0.9999888971949643</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999888971949643</v>
+      </c>
+      <c r="R38">
+        <v>0.9990918616301132</v>
+      </c>
+      <c r="S38">
+        <v>0.9990918616301132</v>
+      </c>
+      <c r="T38">
+        <v>1.00030755631289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.009256885601866</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9867579692441799</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.009256885601866</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.002702869708579</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9980629179897645</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.003855250572879</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.007228660885469</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9867579692441799</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9867579692441799</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.002702869708579</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.005979877655222</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.005979877655222</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.005271668627775</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995725748515415</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9995725748515415</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9963689234497011</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9963689234497011</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.001310759000456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8607368992963933</v>
+      </c>
+      <c r="D40">
+        <v>0.9968011296004103</v>
+      </c>
+      <c r="E40">
+        <v>0.8607368992963933</v>
+      </c>
+      <c r="F40">
+        <v>1.057129870207808</v>
+      </c>
+      <c r="G40">
+        <v>1.039537280657799</v>
+      </c>
+      <c r="H40">
+        <v>0.9042937828570505</v>
+      </c>
+      <c r="I40">
+        <v>1.17730914895257</v>
+      </c>
+      <c r="J40">
+        <v>0.9968011296004103</v>
+      </c>
+      <c r="K40">
+        <v>0.9968011296004103</v>
+      </c>
+      <c r="L40">
+        <v>1.057129870207808</v>
+      </c>
+      <c r="M40">
+        <v>0.9589333847521009</v>
+      </c>
+      <c r="N40">
+        <v>0.9589333847521009</v>
+      </c>
+      <c r="O40">
+        <v>0.9407201841204174</v>
+      </c>
+      <c r="P40">
+        <v>0.9715559663682041</v>
+      </c>
+      <c r="Q40">
+        <v>0.971555966368204</v>
+      </c>
+      <c r="R40">
+        <v>0.9778672571762556</v>
+      </c>
+      <c r="S40">
+        <v>0.9778672571762556</v>
+      </c>
+      <c r="T40">
+        <v>1.005968018595338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9907850089484925</v>
+      </c>
+      <c r="D41">
+        <v>1.013577289331368</v>
+      </c>
+      <c r="E41">
+        <v>0.9907850089484925</v>
+      </c>
+      <c r="F41">
+        <v>0.9957273384847883</v>
+      </c>
+      <c r="G41">
+        <v>1.000919833299393</v>
+      </c>
+      <c r="H41">
+        <v>1.000594943801974</v>
+      </c>
+      <c r="I41">
+        <v>0.9809624162215427</v>
+      </c>
+      <c r="J41">
+        <v>1.013577289331368</v>
+      </c>
+      <c r="K41">
+        <v>1.013577289331368</v>
+      </c>
+      <c r="L41">
+        <v>0.9957273384847883</v>
+      </c>
+      <c r="M41">
+        <v>0.9932561737166404</v>
+      </c>
+      <c r="N41">
+        <v>0.9932561737166404</v>
+      </c>
+      <c r="O41">
+        <v>0.9957024304117515</v>
+      </c>
+      <c r="P41">
+        <v>1.00002987892155</v>
+      </c>
+      <c r="Q41">
+        <v>1.00002987892155</v>
+      </c>
+      <c r="R41">
+        <v>1.003416731524004</v>
+      </c>
+      <c r="S41">
+        <v>1.003416731524004</v>
+      </c>
+      <c r="T41">
+        <v>0.9970944716812595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.071131368002962</v>
+      </c>
+      <c r="D42">
+        <v>0.897154040045107</v>
+      </c>
+      <c r="E42">
+        <v>1.071131368002962</v>
+      </c>
+      <c r="F42">
+        <v>1.027477040653428</v>
+      </c>
+      <c r="G42">
+        <v>0.9893353347853876</v>
+      </c>
+      <c r="H42">
+        <v>1.018700434096903</v>
+      </c>
+      <c r="I42">
+        <v>1.071534394245768</v>
+      </c>
+      <c r="J42">
+        <v>0.897154040045107</v>
+      </c>
+      <c r="K42">
+        <v>0.897154040045107</v>
+      </c>
+      <c r="L42">
+        <v>1.027477040653428</v>
+      </c>
+      <c r="M42">
+        <v>1.049304204328195</v>
+      </c>
+      <c r="N42">
+        <v>1.049304204328195</v>
+      </c>
+      <c r="O42">
+        <v>1.039102947584431</v>
+      </c>
+      <c r="P42">
+        <v>0.9985874829004991</v>
+      </c>
+      <c r="Q42">
+        <v>0.9985874829004991</v>
+      </c>
+      <c r="R42">
+        <v>0.9732291221866511</v>
+      </c>
+      <c r="S42">
+        <v>0.9732291221866511</v>
+      </c>
+      <c r="T42">
+        <v>1.012555435304926</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9972013251289744</v>
+        <v>1.000230543034341</v>
       </c>
       <c r="D3">
-        <v>1.004230831194785</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="E3">
-        <v>0.998894244601954</v>
+        <v>1.000230543034341</v>
       </c>
       <c r="F3">
-        <v>0.9972013251289744</v>
+        <v>0.9998972034668279</v>
       </c>
       <c r="G3">
-        <v>0.9933138203287366</v>
+        <v>0.9998799495065035</v>
       </c>
       <c r="H3">
-        <v>1.004632657920513</v>
+        <v>1.00043230297587</v>
       </c>
       <c r="I3">
-        <v>0.9983576674893676</v>
+        <v>0.9990238535250189</v>
       </c>
       <c r="J3">
-        <v>1.004230831194785</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="K3">
-        <v>0.9972013251289744</v>
+        <v>0.9998851713421809</v>
       </c>
       <c r="L3">
-        <v>0.998894244601954</v>
+        <v>0.9998972034668279</v>
       </c>
       <c r="M3">
-        <v>1.001562537898369</v>
+        <v>1.000063873250584</v>
       </c>
       <c r="N3">
-        <v>1.001562537898369</v>
+        <v>1.000063873250584</v>
       </c>
       <c r="O3">
-        <v>1.002585911239084</v>
+        <v>1.000186683159013</v>
       </c>
       <c r="P3">
-        <v>1.000108800308571</v>
+        <v>1.000004305947783</v>
       </c>
       <c r="Q3">
-        <v>1.000108800308571</v>
+        <v>1.000004305947783</v>
       </c>
       <c r="R3">
-        <v>0.9993819315136717</v>
+        <v>0.9999745222963826</v>
       </c>
       <c r="S3">
-        <v>0.9993819315136717</v>
+        <v>0.9999745222963826</v>
       </c>
       <c r="T3">
-        <v>0.999438424444055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9998915039751237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.994972988736445</v>
+        <v>0.8607368992963933</v>
       </c>
       <c r="D4">
-        <v>1.008474939462289</v>
+        <v>0.9968011296004103</v>
       </c>
       <c r="E4">
-        <v>0.9976693451671204</v>
+        <v>0.8607368992963933</v>
       </c>
       <c r="F4">
-        <v>0.994972988736445</v>
+        <v>1.057129870207808</v>
       </c>
       <c r="G4">
-        <v>0.9870027421248593</v>
+        <v>1.039537280657799</v>
       </c>
       <c r="H4">
-        <v>1.008891691254106</v>
+        <v>0.9042937828570505</v>
       </c>
       <c r="I4">
-        <v>0.9968041565392982</v>
+        <v>1.17730914895257</v>
       </c>
       <c r="J4">
-        <v>1.008474939462289</v>
+        <v>0.9968011296004103</v>
       </c>
       <c r="K4">
-        <v>0.994972988736445</v>
+        <v>0.9968011296004103</v>
       </c>
       <c r="L4">
-        <v>0.9976693451671204</v>
+        <v>1.057129870207808</v>
       </c>
       <c r="M4">
-        <v>1.003072142314705</v>
+        <v>0.9589333847521009</v>
       </c>
       <c r="N4">
-        <v>1.003072142314705</v>
+        <v>0.9589333847521009</v>
       </c>
       <c r="O4">
-        <v>1.005011991961172</v>
+        <v>0.9407201841204174</v>
       </c>
       <c r="P4">
-        <v>1.000372424455285</v>
+        <v>0.9715559663682041</v>
       </c>
       <c r="Q4">
-        <v>1.000372424455285</v>
+        <v>0.971555966368204</v>
       </c>
       <c r="R4">
-        <v>0.9990225655255749</v>
+        <v>0.9778672571762556</v>
       </c>
       <c r="S4">
-        <v>0.9990225655255749</v>
+        <v>0.9778672571762556</v>
       </c>
       <c r="T4">
-        <v>0.9989693105473529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.005968018595338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9895246062903952</v>
+        <v>1.05469821455763</v>
       </c>
       <c r="D5">
-        <v>1.015863727358234</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="E5">
-        <v>0.9959446767899475</v>
+        <v>1.05469821455763</v>
       </c>
       <c r="F5">
-        <v>0.9895246062903952</v>
+        <v>0.9926296894452459</v>
       </c>
       <c r="G5">
-        <v>0.9754717977936168</v>
+        <v>0.9842695507492816</v>
       </c>
       <c r="H5">
-        <v>1.017122372849945</v>
+        <v>1.042414548775214</v>
       </c>
       <c r="I5">
-        <v>0.9939065471118096</v>
+        <v>0.9467216370028798</v>
       </c>
       <c r="J5">
-        <v>1.015863727358234</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="K5">
-        <v>0.9895246062903952</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="L5">
-        <v>0.9959446767899475</v>
+        <v>0.9926296894452459</v>
       </c>
       <c r="M5">
-        <v>1.005904202074091</v>
+        <v>1.023663952001438</v>
       </c>
       <c r="N5">
-        <v>1.005904202074091</v>
+        <v>1.023663952001438</v>
       </c>
       <c r="O5">
-        <v>1.009643592332709</v>
+        <v>1.02991415092603</v>
       </c>
       <c r="P5">
-        <v>1.000444336812859</v>
+        <v>1.004092851127761</v>
       </c>
       <c r="Q5">
-        <v>1.000444336812859</v>
+        <v>1.00409285112776</v>
       </c>
       <c r="R5">
-        <v>0.997714404182243</v>
+        <v>0.994307300690922</v>
       </c>
       <c r="S5">
-        <v>0.997714404182243</v>
+        <v>0.994307300690922</v>
       </c>
       <c r="T5">
-        <v>0.9979722880323246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.997614048318443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9844819857434829</v>
+        <v>1.1785832974116</v>
       </c>
       <c r="D6">
-        <v>1.022789084751872</v>
+        <v>0.8346232587942763</v>
       </c>
       <c r="E6">
-        <v>0.9940775297898654</v>
+        <v>1.1785832974116</v>
       </c>
       <c r="F6">
-        <v>0.9844819857434829</v>
+        <v>0.99480857997058</v>
       </c>
       <c r="G6">
-        <v>0.9645614949396231</v>
+        <v>0.9462103605041458</v>
       </c>
       <c r="H6">
-        <v>1.025247436519778</v>
+        <v>1.158285714301485</v>
       </c>
       <c r="I6">
-        <v>0.9909137469572635</v>
+        <v>0.8077168222704175</v>
       </c>
       <c r="J6">
-        <v>1.022789084751872</v>
+        <v>0.8346232587942763</v>
       </c>
       <c r="K6">
-        <v>0.9844819857434829</v>
+        <v>0.8346232587942763</v>
       </c>
       <c r="L6">
-        <v>0.9940775297898654</v>
+        <v>0.99480857997058</v>
       </c>
       <c r="M6">
-        <v>1.008433307270868</v>
+        <v>1.08669593869109</v>
       </c>
       <c r="N6">
-        <v>1.008433307270868</v>
+        <v>1.08669593869109</v>
       </c>
       <c r="O6">
-        <v>1.014038017020505</v>
+        <v>1.110559197227888</v>
       </c>
       <c r="P6">
-        <v>1.000449533428407</v>
+        <v>1.002671712058819</v>
       </c>
       <c r="Q6">
-        <v>1.000449533428407</v>
+        <v>1.002671712058819</v>
       </c>
       <c r="R6">
-        <v>0.9964576465071757</v>
+        <v>0.9606595987426833</v>
       </c>
       <c r="S6">
-        <v>0.9964576465071757</v>
+        <v>0.9606595987426833</v>
       </c>
       <c r="T6">
-        <v>0.9970118797836474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9867046722087508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998233504968851</v>
+        <v>1.002116025418314</v>
       </c>
       <c r="D7">
-        <v>1.000246285814934</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="E7">
-        <v>0.9999622415555829</v>
+        <v>1.002116025418314</v>
       </c>
       <c r="F7">
-        <v>0.9998233504968851</v>
+        <v>0.9984102613517343</v>
       </c>
       <c r="G7">
-        <v>0.9995882304509651</v>
+        <v>0.9988092067297222</v>
       </c>
       <c r="H7">
-        <v>1.00025413384501</v>
+        <v>1.003650713727027</v>
       </c>
       <c r="I7">
-        <v>0.999917369944771</v>
+        <v>0.9924382034439863</v>
       </c>
       <c r="J7">
-        <v>1.000246285814934</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="K7">
-        <v>0.9998233504968851</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="L7">
-        <v>0.9999622415555829</v>
+        <v>0.9984102613517343</v>
       </c>
       <c r="M7">
-        <v>1.000104263685258</v>
+        <v>1.000263143385024</v>
       </c>
       <c r="N7">
-        <v>1.000104263685258</v>
+        <v>1.000263143385024</v>
       </c>
       <c r="O7">
-        <v>1.000154220405175</v>
+        <v>1.001392333499025</v>
       </c>
       <c r="P7">
-        <v>1.000010625955801</v>
+        <v>1.00013081217546</v>
       </c>
       <c r="Q7">
-        <v>1.000010625955801</v>
+        <v>1.00013081217546</v>
       </c>
       <c r="R7">
-        <v>0.9999638070910717</v>
+        <v>1.000064646570678</v>
       </c>
       <c r="S7">
-        <v>0.9999638070910717</v>
+        <v>1.000064646570678</v>
       </c>
       <c r="T7">
-        <v>0.9999652686846913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9992150934045192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998851713421815</v>
+        <v>0.9996075416414903</v>
       </c>
       <c r="D8">
-        <v>1.000230543034342</v>
+        <v>1.001066541341423</v>
       </c>
       <c r="E8">
-        <v>0.9998972034668282</v>
+        <v>0.9996075416414903</v>
       </c>
       <c r="F8">
-        <v>0.9998851713421815</v>
+        <v>0.9995251202634059</v>
       </c>
       <c r="G8">
-        <v>0.9990238535250192</v>
+        <v>0.9999677482725299</v>
       </c>
       <c r="H8">
-        <v>1.000432302975869</v>
+        <v>1.000330404070149</v>
       </c>
       <c r="I8">
-        <v>0.9998799495065032</v>
+        <v>0.9979167865750056</v>
       </c>
       <c r="J8">
-        <v>1.000230543034342</v>
+        <v>1.001066541341423</v>
       </c>
       <c r="K8">
-        <v>0.9998851713421815</v>
+        <v>1.001066541341423</v>
       </c>
       <c r="L8">
-        <v>0.9998972034668282</v>
+        <v>0.9995251202634059</v>
       </c>
       <c r="M8">
-        <v>1.000063873250585</v>
+        <v>0.9995663309524481</v>
       </c>
       <c r="N8">
-        <v>1.000063873250585</v>
+        <v>0.9995663309524481</v>
       </c>
       <c r="O8">
-        <v>1.000186683159013</v>
+        <v>0.9998210219916818</v>
       </c>
       <c r="P8">
-        <v>1.000004305947784</v>
+        <v>1.000066401082106</v>
       </c>
       <c r="Q8">
-        <v>1.000004305947784</v>
+        <v>1.000066401082107</v>
       </c>
       <c r="R8">
-        <v>0.9999745222963832</v>
+        <v>1.000316436146936</v>
       </c>
       <c r="S8">
-        <v>0.9999745222963832</v>
+        <v>1.000316436146936</v>
       </c>
       <c r="T8">
-        <v>0.9998915039751237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9997356903606672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00036521036794</v>
+        <v>1.008474939462289</v>
       </c>
       <c r="D9">
-        <v>1.000203337606563</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="E9">
-        <v>0.9996595719333589</v>
+        <v>1.008474939462289</v>
       </c>
       <c r="F9">
-        <v>1.00036521036794</v>
+        <v>0.9976693451671204</v>
       </c>
       <c r="G9">
-        <v>0.9983570218074885</v>
+        <v>0.9968041565392982</v>
       </c>
       <c r="H9">
-        <v>1.000530921048608</v>
+        <v>1.008891691254106</v>
       </c>
       <c r="I9">
-        <v>0.9998491921503623</v>
+        <v>0.9870027421248593</v>
       </c>
       <c r="J9">
-        <v>1.000203337606563</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="K9">
-        <v>1.00036521036794</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="L9">
-        <v>0.9996595719333589</v>
+        <v>0.9976693451671204</v>
       </c>
       <c r="M9">
-        <v>0.9999314547699609</v>
+        <v>1.003072142314705</v>
       </c>
       <c r="N9">
-        <v>0.9999314547699609</v>
+        <v>1.003072142314705</v>
       </c>
       <c r="O9">
-        <v>1.000131276862843</v>
+        <v>1.005011991961172</v>
       </c>
       <c r="P9">
-        <v>1.000076039969287</v>
+        <v>1.000372424455285</v>
       </c>
       <c r="Q9">
-        <v>1.000076039969287</v>
+        <v>1.000372424455285</v>
       </c>
       <c r="R9">
-        <v>1.00014833256895</v>
+        <v>0.9990225655255749</v>
       </c>
       <c r="S9">
-        <v>1.00014833256895</v>
+        <v>0.9990225655255749</v>
       </c>
       <c r="T9">
-        <v>0.9998275424857201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9989693105473529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000130433645545</v>
+        <v>1.175772351197716</v>
       </c>
       <c r="D10">
-        <v>1.000530458879136</v>
+        <v>0.8283951779875331</v>
       </c>
       <c r="E10">
-        <v>0.999509384116756</v>
+        <v>1.175772351197716</v>
       </c>
       <c r="F10">
-        <v>1.000130433645545</v>
+        <v>0.9972102613071193</v>
       </c>
       <c r="G10">
-        <v>0.9967911005871375</v>
+        <v>0.9460584525515719</v>
       </c>
       <c r="H10">
-        <v>1.001246081000591</v>
+        <v>1.161207416080566</v>
       </c>
       <c r="I10">
-        <v>0.9996541066125855</v>
+        <v>0.8037108611038795</v>
       </c>
       <c r="J10">
-        <v>1.000530458879136</v>
+        <v>0.8283951779875331</v>
       </c>
       <c r="K10">
-        <v>1.000130433645545</v>
+        <v>0.8283951779875331</v>
       </c>
       <c r="L10">
-        <v>0.999509384116756</v>
+        <v>0.9972102613071193</v>
       </c>
       <c r="M10">
-        <v>1.000019921497946</v>
+        <v>1.086491306252418</v>
       </c>
       <c r="N10">
-        <v>1.000019921497946</v>
+        <v>1.086491306252418</v>
       </c>
       <c r="O10">
-        <v>1.000428641332161</v>
+        <v>1.111396676195134</v>
       </c>
       <c r="P10">
-        <v>1.000056758880479</v>
+        <v>1.000459263497456</v>
       </c>
       <c r="Q10">
-        <v>1.000056758880479</v>
+        <v>1.000459263497456</v>
       </c>
       <c r="R10">
-        <v>1.000075177571746</v>
+        <v>0.9574432421199754</v>
       </c>
       <c r="S10">
-        <v>1.000075177571746</v>
+        <v>0.9574432421199754</v>
       </c>
       <c r="T10">
-        <v>0.9996435941402918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9853924200380644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001952154240782</v>
+        <v>0.8818348366154489</v>
       </c>
       <c r="D11">
-        <v>1.000219319420811</v>
+        <v>0.9961832968701019</v>
       </c>
       <c r="E11">
-        <v>0.9986509052677405</v>
+        <v>0.8818348366154489</v>
       </c>
       <c r="F11">
-        <v>1.001952154240782</v>
+        <v>1.047523753303812</v>
       </c>
       <c r="G11">
-        <v>0.9937232785541932</v>
+        <v>1.032612011084229</v>
       </c>
       <c r="H11">
-        <v>1.001730087651866</v>
+        <v>0.9240219456177529</v>
       </c>
       <c r="I11">
-        <v>0.9995516739569578</v>
+        <v>1.136368478932765</v>
       </c>
       <c r="J11">
-        <v>1.000219319420811</v>
+        <v>0.9961832968701019</v>
       </c>
       <c r="K11">
-        <v>1.001952154240782</v>
+        <v>0.9961832968701019</v>
       </c>
       <c r="L11">
-        <v>0.9986509052677405</v>
+        <v>1.047523753303812</v>
       </c>
       <c r="M11">
-        <v>0.9994351123442757</v>
+        <v>0.9646792949596305</v>
       </c>
       <c r="N11">
-        <v>0.9994351123442757</v>
+        <v>0.9646792949596305</v>
       </c>
       <c r="O11">
-        <v>1.000200104113472</v>
+        <v>0.9511268451790046</v>
       </c>
       <c r="P11">
-        <v>1.000274126309778</v>
+        <v>0.9751806289297876</v>
       </c>
       <c r="Q11">
-        <v>1.000274126309778</v>
+        <v>0.9751806289297876</v>
       </c>
       <c r="R11">
-        <v>1.000693633292529</v>
+        <v>0.9804312959148662</v>
       </c>
       <c r="S11">
-        <v>1.000693633292529</v>
+        <v>0.9804312959148662</v>
       </c>
       <c r="T11">
-        <v>0.999304569848725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.003090720404018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.017233168394421</v>
+        <v>1.046266125199997</v>
       </c>
       <c r="D12">
-        <v>0.9739418494671106</v>
+        <v>0.9520571498526331</v>
       </c>
       <c r="E12">
-        <v>0.9920924749330989</v>
+        <v>1.046266125199997</v>
       </c>
       <c r="F12">
-        <v>1.017233168394421</v>
+        <v>0.9991129608421064</v>
       </c>
       <c r="G12">
-        <v>0.9212251918791787</v>
+        <v>0.9849890148000012</v>
       </c>
       <c r="H12">
-        <v>1.017984232218535</v>
+        <v>1.045465355168421</v>
       </c>
       <c r="I12">
-        <v>0.999491086814307</v>
+        <v>0.9445409299263133</v>
       </c>
       <c r="J12">
-        <v>0.9739418494671106</v>
+        <v>0.9520571498526331</v>
       </c>
       <c r="K12">
-        <v>1.017233168394421</v>
+        <v>0.9520571498526331</v>
       </c>
       <c r="L12">
-        <v>0.9920924749330989</v>
+        <v>0.9991129608421064</v>
       </c>
       <c r="M12">
-        <v>0.9830171622001047</v>
+        <v>1.022689543021052</v>
       </c>
       <c r="N12">
-        <v>0.9830171622001047</v>
+        <v>1.022689543021052</v>
       </c>
       <c r="O12">
-        <v>0.9946728522062479</v>
+        <v>1.030281480403508</v>
       </c>
       <c r="P12">
-        <v>0.99442249759821</v>
+        <v>0.9991454119649124</v>
       </c>
       <c r="Q12">
-        <v>0.99442249759821</v>
+        <v>0.9991454119649122</v>
       </c>
       <c r="R12">
-        <v>1.000125165297263</v>
+        <v>0.9873733464368424</v>
       </c>
       <c r="S12">
-        <v>1.000125165297263</v>
+        <v>0.9873733464368424</v>
       </c>
       <c r="T12">
-        <v>0.9869946672844417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9954052559649119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001662564591766</v>
+        <v>0.9325241232913559</v>
       </c>
       <c r="D13">
-        <v>1.055415523077768</v>
+        <v>1.005973914547188</v>
       </c>
       <c r="E13">
-        <v>0.9861804254626094</v>
+        <v>0.9325241232913559</v>
       </c>
       <c r="F13">
-        <v>1.001662564591766</v>
+        <v>1.018707190944781</v>
       </c>
       <c r="G13">
-        <v>1.029773688224776</v>
+        <v>1.015028307776681</v>
       </c>
       <c r="H13">
-        <v>1.003341934373201</v>
+        <v>0.971287329812572</v>
       </c>
       <c r="I13">
-        <v>0.9906513288027443</v>
+        <v>1.033851929153054</v>
       </c>
       <c r="J13">
-        <v>1.055415523077768</v>
+        <v>1.005973914547188</v>
       </c>
       <c r="K13">
-        <v>1.001662564591766</v>
+        <v>1.005973914547188</v>
       </c>
       <c r="L13">
-        <v>0.9861804254626094</v>
+        <v>1.018707190944781</v>
       </c>
       <c r="M13">
-        <v>1.020797974270188</v>
+        <v>0.9756156571180684</v>
       </c>
       <c r="N13">
-        <v>1.020797974270188</v>
+        <v>0.9756156571180684</v>
       </c>
       <c r="O13">
-        <v>1.014979294304526</v>
+        <v>0.9741728813495696</v>
       </c>
       <c r="P13">
-        <v>1.014419504377381</v>
+        <v>0.9857350762611082</v>
       </c>
       <c r="Q13">
-        <v>1.014419504377381</v>
+        <v>0.9857350762611082</v>
       </c>
       <c r="R13">
-        <v>1.011230269430977</v>
+        <v>0.9907947858326283</v>
       </c>
       <c r="S13">
-        <v>1.011230269430977</v>
+        <v>0.9907947858326283</v>
       </c>
       <c r="T13">
-        <v>1.011170910755477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.996228799254272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6909695004160498</v>
+        <v>1.3021676</v>
       </c>
       <c r="D14">
-        <v>1.421533642546746</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="E14">
-        <v>1.021658297021128</v>
+        <v>1.3021676</v>
       </c>
       <c r="F14">
-        <v>0.6909695004160498</v>
+        <v>0.9974612800000009</v>
       </c>
       <c r="G14">
-        <v>1.203959045191977</v>
+        <v>0.907408879999999</v>
       </c>
       <c r="H14">
-        <v>1.11234435219816</v>
+        <v>1.278152700000002</v>
       </c>
       <c r="I14">
-        <v>0.9254290813736291</v>
+        <v>0.6603244900000004</v>
       </c>
       <c r="J14">
-        <v>1.421533642546746</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="K14">
-        <v>0.6909695004160498</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="L14">
-        <v>1.021658297021128</v>
+        <v>0.9974612800000009</v>
       </c>
       <c r="M14">
-        <v>1.221595969783937</v>
+        <v>1.149814440000001</v>
       </c>
       <c r="N14">
-        <v>1.221595969783937</v>
+        <v>1.149814440000001</v>
       </c>
       <c r="O14">
-        <v>1.185178763922011</v>
+        <v>1.192593860000001</v>
       </c>
       <c r="P14">
-        <v>1.044720479994641</v>
+        <v>1.000197950000001</v>
       </c>
       <c r="Q14">
-        <v>1.044720479994641</v>
+        <v>1.000197950000001</v>
       </c>
       <c r="R14">
-        <v>0.9562827350999934</v>
+        <v>0.9253897050000006</v>
       </c>
       <c r="S14">
-        <v>0.9562827350999934</v>
+        <v>0.9253897050000006</v>
       </c>
       <c r="T14">
-        <v>1.062648986457948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9744133200000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.07046845127991</v>
+        <v>0.21885897</v>
       </c>
       <c r="D15">
-        <v>0.920870893691443</v>
+        <v>1.9813918</v>
       </c>
       <c r="E15">
-        <v>0.9766149069511636</v>
+        <v>0.21885897</v>
       </c>
       <c r="F15">
-        <v>1.07046845127991</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="G15">
-        <v>0.8115541720883946</v>
+        <v>1.1585466</v>
       </c>
       <c r="H15">
-        <v>1.028704240038631</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I15">
-        <v>1.003922125850108</v>
+        <v>0.66920919</v>
       </c>
       <c r="J15">
-        <v>0.920870893691443</v>
+        <v>1.9813918</v>
       </c>
       <c r="K15">
-        <v>1.07046845127991</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>0.9766149069511636</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>0.9487429003213033</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>0.9487429003213033</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>0.9753966802270791</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>0.9893180839741721</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>0.9893180839741721</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>1.009605675800607</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>1.009605675800607</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>0.9686891316499415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989500255424506</v>
+        <v>0.089442961</v>
       </c>
       <c r="D16">
-        <v>1.000534157659648</v>
+        <v>0.8523544</v>
       </c>
       <c r="E16">
-        <v>1.000345701989874</v>
+        <v>0.089442961</v>
       </c>
       <c r="F16">
-        <v>0.9989500255424506</v>
+        <v>1.442229</v>
       </c>
       <c r="G16">
-        <v>1.001022209740835</v>
+        <v>1.2709631</v>
       </c>
       <c r="H16">
-        <v>1.00005893078789</v>
+        <v>0.30567502</v>
       </c>
       <c r="I16">
-        <v>0.9999387038701325</v>
+        <v>2.4881574</v>
       </c>
       <c r="J16">
-        <v>1.000534157659648</v>
+        <v>0.8523544</v>
       </c>
       <c r="K16">
-        <v>0.9989500255424506</v>
+        <v>0.8523544</v>
       </c>
       <c r="L16">
-        <v>1.000345701989874</v>
+        <v>1.442229</v>
       </c>
       <c r="M16">
-        <v>1.000439929824761</v>
+        <v>0.7658359805000001</v>
       </c>
       <c r="N16">
-        <v>1.000439929824761</v>
+        <v>0.7658359805000001</v>
       </c>
       <c r="O16">
-        <v>1.000312930145804</v>
+        <v>0.6124489936666667</v>
       </c>
       <c r="P16">
-        <v>0.9999432950639912</v>
+        <v>0.7946754536666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999432950639912</v>
+        <v>0.7946754536666667</v>
       </c>
       <c r="R16">
-        <v>0.999694977683606</v>
+        <v>0.80909519025</v>
       </c>
       <c r="S16">
-        <v>0.999694977683606</v>
+        <v>0.80909519025</v>
       </c>
       <c r="T16">
-        <v>1.000141621598472</v>
+        <v>1.074803646833333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001066541341423</v>
+        <v>0.34476448</v>
       </c>
       <c r="D17">
-        <v>0.9996075416414906</v>
+        <v>1.3689816</v>
       </c>
       <c r="E17">
-        <v>0.9995251202634059</v>
+        <v>0.34476448</v>
       </c>
       <c r="F17">
-        <v>1.001066541341423</v>
+        <v>1.0752509</v>
       </c>
       <c r="G17">
-        <v>0.9979167865750059</v>
+        <v>1.157503</v>
       </c>
       <c r="H17">
-        <v>1.000330404070149</v>
+        <v>0.67387115</v>
       </c>
       <c r="I17">
-        <v>0.9999677482725295</v>
+        <v>1.1226458</v>
       </c>
       <c r="J17">
-        <v>0.9996075416414906</v>
+        <v>1.3689816</v>
       </c>
       <c r="K17">
-        <v>1.001066541341423</v>
+        <v>1.3689816</v>
       </c>
       <c r="L17">
-        <v>0.9995251202634059</v>
+        <v>1.0752509</v>
       </c>
       <c r="M17">
-        <v>0.9995663309524483</v>
+        <v>0.71000769</v>
       </c>
       <c r="N17">
-        <v>0.9995663309524483</v>
+        <v>0.71000769</v>
       </c>
       <c r="O17">
-        <v>0.999821021991682</v>
+        <v>0.6979621766666666</v>
       </c>
       <c r="P17">
-        <v>1.000066401082107</v>
+        <v>0.9296656599999999</v>
       </c>
       <c r="Q17">
-        <v>1.000066401082107</v>
+        <v>0.9296656599999999</v>
       </c>
       <c r="R17">
-        <v>1.000316436146936</v>
+        <v>1.039494645</v>
       </c>
       <c r="S17">
-        <v>1.000316436146936</v>
+        <v>1.039494645</v>
       </c>
       <c r="T17">
-        <v>0.9997356903606676</v>
+        <v>0.9571694883333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964007549355601</v>
+        <v>1.092595816328767</v>
       </c>
       <c r="D18">
-        <v>1.003071315005669</v>
+        <v>0.9540367775342465</v>
       </c>
       <c r="E18">
-        <v>1.000494621643663</v>
+        <v>1.092595816328767</v>
       </c>
       <c r="F18">
-        <v>0.9964007549355601</v>
+        <v>0.9694533050684926</v>
       </c>
       <c r="G18">
-        <v>1.0010799430855</v>
+        <v>0.9640675676712326</v>
       </c>
       <c r="H18">
-        <v>1.001521624379173</v>
+        <v>1.099951597534247</v>
       </c>
       <c r="I18">
-        <v>0.9992770788277704</v>
+        <v>0.844592319041096</v>
       </c>
       <c r="J18">
-        <v>1.003071315005669</v>
+        <v>0.9540367775342465</v>
       </c>
       <c r="K18">
-        <v>0.9964007549355601</v>
+        <v>0.9540367775342465</v>
       </c>
       <c r="L18">
-        <v>1.000494621643663</v>
+        <v>0.9694533050684926</v>
       </c>
       <c r="M18">
-        <v>1.001782968324666</v>
+        <v>1.03102456069863</v>
       </c>
       <c r="N18">
-        <v>1.001782968324666</v>
+        <v>1.03102456069863</v>
       </c>
       <c r="O18">
-        <v>1.001695853676169</v>
+        <v>1.054000239643836</v>
       </c>
       <c r="P18">
-        <v>0.9999888971949643</v>
+        <v>1.005361966310502</v>
       </c>
       <c r="Q18">
-        <v>0.9999888971949643</v>
+        <v>1.005361966310502</v>
       </c>
       <c r="R18">
-        <v>0.9990918616301133</v>
+        <v>0.9925306691164383</v>
       </c>
       <c r="S18">
-        <v>0.9990918616301133</v>
+        <v>0.9925306691164383</v>
       </c>
       <c r="T18">
-        <v>1.00030755631289</v>
+        <v>0.9874495638630137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9867579692441799</v>
+        <v>0.9706372662105263</v>
       </c>
       <c r="D19">
-        <v>1.009256885601866</v>
+        <v>0.8616872799999999</v>
       </c>
       <c r="E19">
-        <v>1.002702869708579</v>
+        <v>0.9706372662105263</v>
       </c>
       <c r="F19">
-        <v>0.9867579692441799</v>
+        <v>1.105581433157895</v>
       </c>
       <c r="G19">
-        <v>1.007228660885469</v>
+        <v>1.033028472105263</v>
       </c>
       <c r="H19">
-        <v>1.003855250572879</v>
+        <v>0.8806752273684212</v>
       </c>
       <c r="I19">
-        <v>0.9980629179897645</v>
+        <v>1.410406334736842</v>
       </c>
       <c r="J19">
-        <v>1.009256885601866</v>
+        <v>0.8616872799999999</v>
       </c>
       <c r="K19">
-        <v>0.9867579692441799</v>
+        <v>0.8616872799999999</v>
       </c>
       <c r="L19">
-        <v>1.002702869708579</v>
+        <v>1.105581433157895</v>
       </c>
       <c r="M19">
-        <v>1.005979877655222</v>
+        <v>1.038109349684211</v>
       </c>
       <c r="N19">
-        <v>1.005979877655222</v>
+        <v>1.038109349684211</v>
       </c>
       <c r="O19">
-        <v>1.005271668627775</v>
+        <v>0.9856313089122808</v>
       </c>
       <c r="P19">
-        <v>0.9995725748515415</v>
+        <v>0.9793019931228071</v>
       </c>
       <c r="Q19">
-        <v>0.9995725748515415</v>
+        <v>0.9793019931228071</v>
       </c>
       <c r="R19">
-        <v>0.9963689234497011</v>
+        <v>0.9498983148421053</v>
       </c>
       <c r="S19">
-        <v>0.9963689234497011</v>
+        <v>0.9498983148421053</v>
       </c>
       <c r="T19">
-        <v>1.001310759000456</v>
+        <v>1.043669335596491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.4557892163157896</v>
+      </c>
+      <c r="D20">
+        <v>1.300482496315789</v>
+      </c>
+      <c r="E20">
+        <v>0.4557892163157896</v>
+      </c>
+      <c r="F20">
+        <v>1.055916306842105</v>
+      </c>
+      <c r="G20">
+        <v>1.127106211578947</v>
+      </c>
+      <c r="H20">
+        <v>0.7339294589473685</v>
+      </c>
+      <c r="I20">
+        <v>1.122302255263158</v>
+      </c>
+      <c r="J20">
+        <v>1.300482496315789</v>
+      </c>
+      <c r="K20">
+        <v>1.300482496315789</v>
+      </c>
+      <c r="L20">
+        <v>1.055916306842105</v>
+      </c>
+      <c r="M20">
+        <v>0.7558527615789473</v>
+      </c>
+      <c r="N20">
+        <v>0.7558527615789473</v>
+      </c>
+      <c r="O20">
+        <v>0.7485449940350878</v>
+      </c>
+      <c r="P20">
+        <v>0.937396006491228</v>
+      </c>
+      <c r="Q20">
+        <v>0.937396006491228</v>
+      </c>
+      <c r="R20">
+        <v>1.028167628947368</v>
+      </c>
+      <c r="S20">
+        <v>1.028167628947368</v>
+      </c>
+      <c r="T20">
+        <v>0.965920990877193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.421533642546747</v>
+      </c>
+      <c r="D21">
+        <v>0.6909695004160497</v>
+      </c>
+      <c r="E21">
+        <v>1.421533642546747</v>
+      </c>
+      <c r="F21">
+        <v>1.021658297021128</v>
+      </c>
+      <c r="G21">
+        <v>0.9254290813736291</v>
+      </c>
+      <c r="H21">
+        <v>1.11234435219816</v>
+      </c>
+      <c r="I21">
+        <v>1.203959045191977</v>
+      </c>
+      <c r="J21">
+        <v>0.6909695004160497</v>
+      </c>
+      <c r="K21">
+        <v>0.6909695004160497</v>
+      </c>
+      <c r="L21">
+        <v>1.021658297021128</v>
+      </c>
+      <c r="M21">
+        <v>1.221595969783937</v>
+      </c>
+      <c r="N21">
+        <v>1.221595969783937</v>
+      </c>
+      <c r="O21">
+        <v>1.185178763922011</v>
+      </c>
+      <c r="P21">
+        <v>1.044720479994641</v>
+      </c>
+      <c r="Q21">
+        <v>1.044720479994641</v>
+      </c>
+      <c r="R21">
+        <v>0.9562827350999934</v>
+      </c>
+      <c r="S21">
+        <v>0.9562827350999934</v>
+      </c>
+      <c r="T21">
+        <v>1.062648986457948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.920870893691443</v>
+      </c>
+      <c r="D22">
+        <v>1.07046845127991</v>
+      </c>
+      <c r="E22">
+        <v>0.920870893691443</v>
+      </c>
+      <c r="F22">
+        <v>0.9766149069511636</v>
+      </c>
+      <c r="G22">
+        <v>1.003922125850108</v>
+      </c>
+      <c r="H22">
+        <v>1.028704240038631</v>
+      </c>
+      <c r="I22">
+        <v>0.8115541720883946</v>
+      </c>
+      <c r="J22">
+        <v>1.07046845127991</v>
+      </c>
+      <c r="K22">
+        <v>1.07046845127991</v>
+      </c>
+      <c r="L22">
+        <v>0.9766149069511636</v>
+      </c>
+      <c r="M22">
+        <v>0.9487429003213033</v>
+      </c>
+      <c r="N22">
+        <v>0.9487429003213033</v>
+      </c>
+      <c r="O22">
+        <v>0.9753966802270791</v>
+      </c>
+      <c r="P22">
+        <v>0.9893180839741721</v>
+      </c>
+      <c r="Q22">
+        <v>0.9893180839741721</v>
+      </c>
+      <c r="R22">
+        <v>1.009605675800607</v>
+      </c>
+      <c r="S22">
+        <v>1.009605675800607</v>
+      </c>
+      <c r="T22">
+        <v>0.9686891316499415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9739418494671106</v>
+      </c>
+      <c r="D23">
+        <v>1.017233168394421</v>
+      </c>
+      <c r="E23">
+        <v>0.9739418494671106</v>
+      </c>
+      <c r="F23">
+        <v>0.9920924749330989</v>
+      </c>
+      <c r="G23">
+        <v>0.9994910868143071</v>
+      </c>
+      <c r="H23">
+        <v>1.017984232218535</v>
+      </c>
+      <c r="I23">
+        <v>0.9212251918791787</v>
+      </c>
+      <c r="J23">
+        <v>1.017233168394421</v>
+      </c>
+      <c r="K23">
+        <v>1.017233168394421</v>
+      </c>
+      <c r="L23">
+        <v>0.9920924749330989</v>
+      </c>
+      <c r="M23">
+        <v>0.9830171622001047</v>
+      </c>
+      <c r="N23">
+        <v>0.9830171622001047</v>
+      </c>
+      <c r="O23">
+        <v>0.9946728522062479</v>
+      </c>
+      <c r="P23">
+        <v>0.99442249759821</v>
+      </c>
+      <c r="Q23">
+        <v>0.99442249759821</v>
+      </c>
+      <c r="R23">
+        <v>1.000125165297263</v>
+      </c>
+      <c r="S23">
+        <v>1.000125165297263</v>
+      </c>
+      <c r="T23">
+        <v>0.9869946672844417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.055415523077768</v>
+      </c>
+      <c r="D24">
+        <v>1.001662564591766</v>
+      </c>
+      <c r="E24">
+        <v>1.055415523077768</v>
+      </c>
+      <c r="F24">
+        <v>0.9861804254626093</v>
+      </c>
+      <c r="G24">
+        <v>0.9906513288027442</v>
+      </c>
+      <c r="H24">
+        <v>1.003341934373201</v>
+      </c>
+      <c r="I24">
+        <v>1.029773688224776</v>
+      </c>
+      <c r="J24">
+        <v>1.001662564591766</v>
+      </c>
+      <c r="K24">
+        <v>1.001662564591766</v>
+      </c>
+      <c r="L24">
+        <v>0.9861804254626093</v>
+      </c>
+      <c r="M24">
+        <v>1.020797974270188</v>
+      </c>
+      <c r="N24">
+        <v>1.020797974270188</v>
+      </c>
+      <c r="O24">
+        <v>1.014979294304526</v>
+      </c>
+      <c r="P24">
+        <v>1.014419504377381</v>
+      </c>
+      <c r="Q24">
+        <v>1.014419504377381</v>
+      </c>
+      <c r="R24">
+        <v>1.011230269430977</v>
+      </c>
+      <c r="S24">
+        <v>1.011230269430977</v>
+      </c>
+      <c r="T24">
+        <v>1.011170910755477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.383253480661417</v>
+      </c>
+      <c r="D25">
+        <v>1.410325223780476</v>
+      </c>
+      <c r="E25">
+        <v>0.383253480661417</v>
+      </c>
+      <c r="F25">
+        <v>1.027462112328554</v>
+      </c>
+      <c r="G25">
+        <v>1.139044132268843</v>
+      </c>
+      <c r="H25">
+        <v>0.7066702914734904</v>
+      </c>
+      <c r="I25">
+        <v>1.071683780789608</v>
+      </c>
+      <c r="J25">
+        <v>1.410325223780476</v>
+      </c>
+      <c r="K25">
+        <v>1.410325223780476</v>
+      </c>
+      <c r="L25">
+        <v>1.027462112328554</v>
+      </c>
+      <c r="M25">
+        <v>0.7053577964949854</v>
+      </c>
+      <c r="N25">
+        <v>0.7053577964949854</v>
+      </c>
+      <c r="O25">
+        <v>0.7057952948211538</v>
+      </c>
+      <c r="P25">
+        <v>0.9403469389234823</v>
+      </c>
+      <c r="Q25">
+        <v>0.9403469389234823</v>
+      </c>
+      <c r="R25">
+        <v>1.057841510137731</v>
+      </c>
+      <c r="S25">
+        <v>1.057841510137731</v>
+      </c>
+      <c r="T25">
+        <v>0.956406503550398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8678196934349931</v>
+      </c>
+      <c r="D26">
+        <v>0.8949055813895205</v>
+      </c>
+      <c r="E26">
+        <v>0.8678196934349931</v>
+      </c>
+      <c r="F26">
+        <v>1.08909968419954</v>
+      </c>
+      <c r="G26">
+        <v>1.032499441045778</v>
+      </c>
+      <c r="H26">
+        <v>0.936675634443817</v>
+      </c>
+      <c r="I26">
+        <v>1.190545089441659</v>
+      </c>
+      <c r="J26">
+        <v>0.8949055813895205</v>
+      </c>
+      <c r="K26">
+        <v>0.8949055813895205</v>
+      </c>
+      <c r="L26">
+        <v>1.08909968419954</v>
+      </c>
+      <c r="M26">
+        <v>0.9784596888172667</v>
+      </c>
+      <c r="N26">
+        <v>0.9784596888172667</v>
+      </c>
+      <c r="O26">
+        <v>0.9645316706927834</v>
+      </c>
+      <c r="P26">
+        <v>0.9506083196746847</v>
+      </c>
+      <c r="Q26">
+        <v>0.9506083196746845</v>
+      </c>
+      <c r="R26">
+        <v>0.9366826351033936</v>
+      </c>
+      <c r="S26">
+        <v>0.9366826351033936</v>
+      </c>
+      <c r="T26">
+        <v>1.001924187325885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.118806458734503</v>
+      </c>
+      <c r="D27">
+        <v>1.042562172008088</v>
+      </c>
+      <c r="E27">
+        <v>1.118806458734503</v>
+      </c>
+      <c r="F27">
+        <v>0.9632836548159832</v>
+      </c>
+      <c r="G27">
+        <v>0.9856990965178829</v>
+      </c>
+      <c r="H27">
+        <v>1.003364007376158</v>
+      </c>
+      <c r="I27">
+        <v>0.996265127869812</v>
+      </c>
+      <c r="J27">
+        <v>1.042562172008088</v>
+      </c>
+      <c r="K27">
+        <v>1.042562172008088</v>
+      </c>
+      <c r="L27">
+        <v>0.9632836548159832</v>
+      </c>
+      <c r="M27">
+        <v>1.041045056775243</v>
+      </c>
+      <c r="N27">
+        <v>1.041045056775243</v>
+      </c>
+      <c r="O27">
+        <v>1.028484706975548</v>
+      </c>
+      <c r="P27">
+        <v>1.041550761852858</v>
+      </c>
+      <c r="Q27">
+        <v>1.041550761852858</v>
+      </c>
+      <c r="R27">
+        <v>1.041803614391666</v>
+      </c>
+      <c r="S27">
+        <v>1.041803614391666</v>
+      </c>
+      <c r="T27">
+        <v>1.018330086220405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9084356040708013</v>
+      </c>
+      <c r="D28">
+        <v>1.02054315902604</v>
+      </c>
+      <c r="E28">
+        <v>0.9084356040708013</v>
+      </c>
+      <c r="F28">
+        <v>1.022067515846906</v>
+      </c>
+      <c r="G28">
+        <v>1.02147427783658</v>
+      </c>
+      <c r="H28">
+        <v>0.9542451671659181</v>
+      </c>
+      <c r="I28">
+        <v>1.05374435717482</v>
+      </c>
+      <c r="J28">
+        <v>1.02054315902604</v>
+      </c>
+      <c r="K28">
+        <v>1.02054315902604</v>
+      </c>
+      <c r="L28">
+        <v>1.022067515846906</v>
+      </c>
+      <c r="M28">
+        <v>0.9652515599588536</v>
+      </c>
+      <c r="N28">
+        <v>0.9652515599588536</v>
+      </c>
+      <c r="O28">
+        <v>0.9615827623612084</v>
+      </c>
+      <c r="P28">
+        <v>0.983682092981249</v>
+      </c>
+      <c r="Q28">
+        <v>0.983682092981249</v>
+      </c>
+      <c r="R28">
+        <v>0.9928973594924467</v>
+      </c>
+      <c r="S28">
+        <v>0.9928973594924467</v>
+      </c>
+      <c r="T28">
+        <v>0.9967516801868442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8178200067066098</v>
+      </c>
+      <c r="D29">
+        <v>1.126329316788258</v>
+      </c>
+      <c r="E29">
+        <v>0.8178200067066098</v>
+      </c>
+      <c r="F29">
+        <v>1.009359916145388</v>
+      </c>
+      <c r="G29">
+        <v>1.043374160685975</v>
+      </c>
+      <c r="H29">
+        <v>0.9023337839111357</v>
+      </c>
+      <c r="I29">
+        <v>1.045177232966691</v>
+      </c>
+      <c r="J29">
+        <v>1.126329316788258</v>
+      </c>
+      <c r="K29">
+        <v>1.126329316788258</v>
+      </c>
+      <c r="L29">
+        <v>1.009359916145388</v>
+      </c>
+      <c r="M29">
+        <v>0.9135899614259988</v>
+      </c>
+      <c r="N29">
+        <v>0.9135899614259988</v>
+      </c>
+      <c r="O29">
+        <v>0.9098379022543778</v>
+      </c>
+      <c r="P29">
+        <v>0.9845030798800852</v>
+      </c>
+      <c r="Q29">
+        <v>0.9845030798800852</v>
+      </c>
+      <c r="R29">
+        <v>1.019959639107128</v>
+      </c>
+      <c r="S29">
+        <v>1.019959639107128</v>
+      </c>
+      <c r="T29">
+        <v>0.9907324028673429</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8607368992963933</v>
+        <v>1.059313049561281</v>
       </c>
       <c r="D4">
-        <v>0.9968011296004103</v>
+        <v>0.9635151609948033</v>
       </c>
       <c r="E4">
-        <v>0.8607368992963933</v>
+        <v>1.059313049561281</v>
       </c>
       <c r="F4">
-        <v>1.057129870207808</v>
+        <v>0.9927655135525397</v>
       </c>
       <c r="G4">
-        <v>1.039537280657799</v>
+        <v>0.9840556299495766</v>
       </c>
       <c r="H4">
-        <v>0.9042937828570505</v>
+        <v>1.040678260351539</v>
       </c>
       <c r="I4">
-        <v>1.17730914895257</v>
+        <v>0.9554939485841648</v>
       </c>
       <c r="J4">
-        <v>0.9968011296004103</v>
+        <v>0.9635151609948033</v>
       </c>
       <c r="K4">
-        <v>0.9968011296004103</v>
+        <v>0.9635151609948033</v>
       </c>
       <c r="L4">
-        <v>1.057129870207808</v>
+        <v>0.9927655135525397</v>
       </c>
       <c r="M4">
-        <v>0.9589333847521009</v>
+        <v>1.026039281556911</v>
       </c>
       <c r="N4">
-        <v>0.9589333847521009</v>
+        <v>1.026039281556911</v>
       </c>
       <c r="O4">
-        <v>0.9407201841204174</v>
+        <v>1.03091894115512</v>
       </c>
       <c r="P4">
-        <v>0.9715559663682041</v>
+        <v>1.005197908036208</v>
       </c>
       <c r="Q4">
-        <v>0.971555966368204</v>
+        <v>1.005197908036208</v>
       </c>
       <c r="R4">
-        <v>0.9778672571762556</v>
+        <v>0.994777221275857</v>
       </c>
       <c r="S4">
-        <v>0.9778672571762556</v>
+        <v>0.994777221275857</v>
       </c>
       <c r="T4">
-        <v>1.005968018595338</v>
+        <v>0.9993035938323175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.05469821455763</v>
+        <v>0.3947645406935399</v>
       </c>
       <c r="D5">
-        <v>0.9649506493804062</v>
+        <v>1.329820643972631</v>
       </c>
       <c r="E5">
-        <v>1.05469821455763</v>
+        <v>0.3947645406935399</v>
       </c>
       <c r="F5">
-        <v>0.9926296894452459</v>
+        <v>1.066967673437643</v>
       </c>
       <c r="G5">
-        <v>0.9842695507492816</v>
+        <v>1.143890135578302</v>
       </c>
       <c r="H5">
-        <v>1.042414548775214</v>
+        <v>0.69258926200857</v>
       </c>
       <c r="I5">
-        <v>0.9467216370028798</v>
+        <v>1.171854135025386</v>
       </c>
       <c r="J5">
-        <v>0.9649506493804062</v>
+        <v>1.329820643972631</v>
       </c>
       <c r="K5">
-        <v>0.9649506493804062</v>
+        <v>1.329820643972631</v>
       </c>
       <c r="L5">
-        <v>0.9926296894452459</v>
+        <v>1.066967673437643</v>
       </c>
       <c r="M5">
-        <v>1.023663952001438</v>
+        <v>0.7308661070655912</v>
       </c>
       <c r="N5">
-        <v>1.023663952001438</v>
+        <v>0.7308661070655912</v>
       </c>
       <c r="O5">
-        <v>1.02991415092603</v>
+        <v>0.7181071587132508</v>
       </c>
       <c r="P5">
-        <v>1.004092851127761</v>
+        <v>0.9305176193679378</v>
       </c>
       <c r="Q5">
-        <v>1.00409285112776</v>
+        <v>0.9305176193679378</v>
       </c>
       <c r="R5">
-        <v>0.994307300690922</v>
+        <v>1.030343375519111</v>
       </c>
       <c r="S5">
-        <v>0.994307300690922</v>
+        <v>1.030343375519111</v>
       </c>
       <c r="T5">
-        <v>0.997614048318443</v>
+        <v>0.9666477317860118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.1785832974116</v>
+        <v>0.8607368992963933</v>
       </c>
       <c r="D6">
-        <v>0.8346232587942763</v>
+        <v>0.9968011296004103</v>
       </c>
       <c r="E6">
-        <v>1.1785832974116</v>
+        <v>0.8607368992963933</v>
       </c>
       <c r="F6">
-        <v>0.99480857997058</v>
+        <v>1.057129870207808</v>
       </c>
       <c r="G6">
-        <v>0.9462103605041458</v>
+        <v>1.039537280657799</v>
       </c>
       <c r="H6">
-        <v>1.158285714301485</v>
+        <v>0.9042937828570505</v>
       </c>
       <c r="I6">
-        <v>0.8077168222704175</v>
+        <v>1.17730914895257</v>
       </c>
       <c r="J6">
-        <v>0.8346232587942763</v>
+        <v>0.9968011296004103</v>
       </c>
       <c r="K6">
-        <v>0.8346232587942763</v>
+        <v>0.9968011296004103</v>
       </c>
       <c r="L6">
-        <v>0.99480857997058</v>
+        <v>1.057129870207808</v>
       </c>
       <c r="M6">
-        <v>1.08669593869109</v>
+        <v>0.9589333847521009</v>
       </c>
       <c r="N6">
-        <v>1.08669593869109</v>
+        <v>0.9589333847521009</v>
       </c>
       <c r="O6">
-        <v>1.110559197227888</v>
+        <v>0.9407201841204174</v>
       </c>
       <c r="P6">
-        <v>1.002671712058819</v>
+        <v>0.9715559663682041</v>
       </c>
       <c r="Q6">
-        <v>1.002671712058819</v>
+        <v>0.971555966368204</v>
       </c>
       <c r="R6">
-        <v>0.9606595987426833</v>
+        <v>0.9778672571762556</v>
       </c>
       <c r="S6">
-        <v>0.9606595987426833</v>
+        <v>0.9778672571762556</v>
       </c>
       <c r="T6">
-        <v>0.9867046722087508</v>
+        <v>1.005968018595338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002116025418314</v>
+        <v>1.05469821455763</v>
       </c>
       <c r="D7">
-        <v>0.9998661497563314</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="E7">
-        <v>1.002116025418314</v>
+        <v>1.05469821455763</v>
       </c>
       <c r="F7">
-        <v>0.9984102613517343</v>
+        <v>0.9926296894452459</v>
       </c>
       <c r="G7">
-        <v>0.9988092067297222</v>
+        <v>0.9842695507492816</v>
       </c>
       <c r="H7">
-        <v>1.003650713727027</v>
+        <v>1.042414548775214</v>
       </c>
       <c r="I7">
-        <v>0.9924382034439863</v>
+        <v>0.9467216370028798</v>
       </c>
       <c r="J7">
-        <v>0.9998661497563314</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="K7">
-        <v>0.9998661497563314</v>
+        <v>0.9649506493804062</v>
       </c>
       <c r="L7">
-        <v>0.9984102613517343</v>
+        <v>0.9926296894452459</v>
       </c>
       <c r="M7">
-        <v>1.000263143385024</v>
+        <v>1.023663952001438</v>
       </c>
       <c r="N7">
-        <v>1.000263143385024</v>
+        <v>1.023663952001438</v>
       </c>
       <c r="O7">
-        <v>1.001392333499025</v>
+        <v>1.02991415092603</v>
       </c>
       <c r="P7">
-        <v>1.00013081217546</v>
+        <v>1.004092851127761</v>
       </c>
       <c r="Q7">
-        <v>1.00013081217546</v>
+        <v>1.00409285112776</v>
       </c>
       <c r="R7">
-        <v>1.000064646570678</v>
+        <v>0.994307300690922</v>
       </c>
       <c r="S7">
-        <v>1.000064646570678</v>
+        <v>0.994307300690922</v>
       </c>
       <c r="T7">
-        <v>0.9992150934045192</v>
+        <v>0.997614048318443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996075416414903</v>
+        <v>1.1785832974116</v>
       </c>
       <c r="D8">
-        <v>1.001066541341423</v>
+        <v>0.8346232587942763</v>
       </c>
       <c r="E8">
-        <v>0.9996075416414903</v>
+        <v>1.1785832974116</v>
       </c>
       <c r="F8">
-        <v>0.9995251202634059</v>
+        <v>0.99480857997058</v>
       </c>
       <c r="G8">
-        <v>0.9999677482725299</v>
+        <v>0.9462103605041458</v>
       </c>
       <c r="H8">
-        <v>1.000330404070149</v>
+        <v>1.158285714301485</v>
       </c>
       <c r="I8">
-        <v>0.9979167865750056</v>
+        <v>0.8077168222704175</v>
       </c>
       <c r="J8">
-        <v>1.001066541341423</v>
+        <v>0.8346232587942763</v>
       </c>
       <c r="K8">
-        <v>1.001066541341423</v>
+        <v>0.8346232587942763</v>
       </c>
       <c r="L8">
-        <v>0.9995251202634059</v>
+        <v>0.99480857997058</v>
       </c>
       <c r="M8">
-        <v>0.9995663309524481</v>
+        <v>1.08669593869109</v>
       </c>
       <c r="N8">
-        <v>0.9995663309524481</v>
+        <v>1.08669593869109</v>
       </c>
       <c r="O8">
-        <v>0.9998210219916818</v>
+        <v>1.110559197227888</v>
       </c>
       <c r="P8">
-        <v>1.000066401082106</v>
+        <v>1.002671712058819</v>
       </c>
       <c r="Q8">
-        <v>1.000066401082107</v>
+        <v>1.002671712058819</v>
       </c>
       <c r="R8">
-        <v>1.000316436146936</v>
+        <v>0.9606595987426833</v>
       </c>
       <c r="S8">
-        <v>1.000316436146936</v>
+        <v>0.9606595987426833</v>
       </c>
       <c r="T8">
-        <v>0.9997356903606672</v>
+        <v>0.9867046722087508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.008474939462289</v>
+        <v>1.002116025418314</v>
       </c>
       <c r="D9">
-        <v>0.994972988736445</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="E9">
-        <v>1.008474939462289</v>
+        <v>1.002116025418314</v>
       </c>
       <c r="F9">
-        <v>0.9976693451671204</v>
+        <v>0.9984102613517343</v>
       </c>
       <c r="G9">
-        <v>0.9968041565392982</v>
+        <v>0.9988092067297222</v>
       </c>
       <c r="H9">
-        <v>1.008891691254106</v>
+        <v>1.003650713727027</v>
       </c>
       <c r="I9">
-        <v>0.9870027421248593</v>
+        <v>0.9924382034439863</v>
       </c>
       <c r="J9">
-        <v>0.994972988736445</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="K9">
-        <v>0.994972988736445</v>
+        <v>0.9998661497563314</v>
       </c>
       <c r="L9">
-        <v>0.9976693451671204</v>
+        <v>0.9984102613517343</v>
       </c>
       <c r="M9">
-        <v>1.003072142314705</v>
+        <v>1.000263143385024</v>
       </c>
       <c r="N9">
-        <v>1.003072142314705</v>
+        <v>1.000263143385024</v>
       </c>
       <c r="O9">
-        <v>1.005011991961172</v>
+        <v>1.001392333499025</v>
       </c>
       <c r="P9">
-        <v>1.000372424455285</v>
+        <v>1.00013081217546</v>
       </c>
       <c r="Q9">
-        <v>1.000372424455285</v>
+        <v>1.00013081217546</v>
       </c>
       <c r="R9">
-        <v>0.9990225655255749</v>
+        <v>1.000064646570678</v>
       </c>
       <c r="S9">
-        <v>0.9990225655255749</v>
+        <v>1.000064646570678</v>
       </c>
       <c r="T9">
-        <v>0.9989693105473529</v>
+        <v>0.9992150934045192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.175772351197716</v>
+        <v>0.9996075416414903</v>
       </c>
       <c r="D10">
-        <v>0.8283951779875331</v>
+        <v>1.001066541341423</v>
       </c>
       <c r="E10">
-        <v>1.175772351197716</v>
+        <v>0.9996075416414903</v>
       </c>
       <c r="F10">
-        <v>0.9972102613071193</v>
+        <v>0.9995251202634059</v>
       </c>
       <c r="G10">
-        <v>0.9460584525515719</v>
+        <v>0.9999677482725299</v>
       </c>
       <c r="H10">
-        <v>1.161207416080566</v>
+        <v>1.000330404070149</v>
       </c>
       <c r="I10">
-        <v>0.8037108611038795</v>
+        <v>0.9979167865750056</v>
       </c>
       <c r="J10">
-        <v>0.8283951779875331</v>
+        <v>1.001066541341423</v>
       </c>
       <c r="K10">
-        <v>0.8283951779875331</v>
+        <v>1.001066541341423</v>
       </c>
       <c r="L10">
-        <v>0.9972102613071193</v>
+        <v>0.9995251202634059</v>
       </c>
       <c r="M10">
-        <v>1.086491306252418</v>
+        <v>0.9995663309524481</v>
       </c>
       <c r="N10">
-        <v>1.086491306252418</v>
+        <v>0.9995663309524481</v>
       </c>
       <c r="O10">
-        <v>1.111396676195134</v>
+        <v>0.9998210219916818</v>
       </c>
       <c r="P10">
-        <v>1.000459263497456</v>
+        <v>1.000066401082106</v>
       </c>
       <c r="Q10">
-        <v>1.000459263497456</v>
+        <v>1.000066401082107</v>
       </c>
       <c r="R10">
-        <v>0.9574432421199754</v>
+        <v>1.000316436146936</v>
       </c>
       <c r="S10">
-        <v>0.9574432421199754</v>
+        <v>1.000316436146936</v>
       </c>
       <c r="T10">
-        <v>0.9853924200380644</v>
+        <v>0.9997356903606672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8818348366154489</v>
+        <v>1.008474939462289</v>
       </c>
       <c r="D11">
-        <v>0.9961832968701019</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="E11">
-        <v>0.8818348366154489</v>
+        <v>1.008474939462289</v>
       </c>
       <c r="F11">
-        <v>1.047523753303812</v>
+        <v>0.9976693451671204</v>
       </c>
       <c r="G11">
-        <v>1.032612011084229</v>
+        <v>0.9968041565392982</v>
       </c>
       <c r="H11">
-        <v>0.9240219456177529</v>
+        <v>1.008891691254106</v>
       </c>
       <c r="I11">
-        <v>1.136368478932765</v>
+        <v>0.9870027421248593</v>
       </c>
       <c r="J11">
-        <v>0.9961832968701019</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="K11">
-        <v>0.9961832968701019</v>
+        <v>0.994972988736445</v>
       </c>
       <c r="L11">
-        <v>1.047523753303812</v>
+        <v>0.9976693451671204</v>
       </c>
       <c r="M11">
-        <v>0.9646792949596305</v>
+        <v>1.003072142314705</v>
       </c>
       <c r="N11">
-        <v>0.9646792949596305</v>
+        <v>1.003072142314705</v>
       </c>
       <c r="O11">
-        <v>0.9511268451790046</v>
+        <v>1.005011991961172</v>
       </c>
       <c r="P11">
-        <v>0.9751806289297876</v>
+        <v>1.000372424455285</v>
       </c>
       <c r="Q11">
-        <v>0.9751806289297876</v>
+        <v>1.000372424455285</v>
       </c>
       <c r="R11">
-        <v>0.9804312959148662</v>
+        <v>0.9990225655255749</v>
       </c>
       <c r="S11">
-        <v>0.9804312959148662</v>
+        <v>0.9990225655255749</v>
       </c>
       <c r="T11">
-        <v>1.003090720404018</v>
+        <v>0.9989693105473529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.046266125199997</v>
+        <v>1.175772351197716</v>
       </c>
       <c r="D12">
-        <v>0.9520571498526331</v>
+        <v>0.8283951779875331</v>
       </c>
       <c r="E12">
-        <v>1.046266125199997</v>
+        <v>1.175772351197716</v>
       </c>
       <c r="F12">
-        <v>0.9991129608421064</v>
+        <v>0.9972102613071193</v>
       </c>
       <c r="G12">
-        <v>0.9849890148000012</v>
+        <v>0.9460584525515719</v>
       </c>
       <c r="H12">
-        <v>1.045465355168421</v>
+        <v>1.161207416080566</v>
       </c>
       <c r="I12">
-        <v>0.9445409299263133</v>
+        <v>0.8037108611038795</v>
       </c>
       <c r="J12">
-        <v>0.9520571498526331</v>
+        <v>0.8283951779875331</v>
       </c>
       <c r="K12">
-        <v>0.9520571498526331</v>
+        <v>0.8283951779875331</v>
       </c>
       <c r="L12">
-        <v>0.9991129608421064</v>
+        <v>0.9972102613071193</v>
       </c>
       <c r="M12">
-        <v>1.022689543021052</v>
+        <v>1.086491306252418</v>
       </c>
       <c r="N12">
-        <v>1.022689543021052</v>
+        <v>1.086491306252418</v>
       </c>
       <c r="O12">
-        <v>1.030281480403508</v>
+        <v>1.111396676195134</v>
       </c>
       <c r="P12">
-        <v>0.9991454119649124</v>
+        <v>1.000459263497456</v>
       </c>
       <c r="Q12">
-        <v>0.9991454119649122</v>
+        <v>1.000459263497456</v>
       </c>
       <c r="R12">
-        <v>0.9873733464368424</v>
+        <v>0.9574432421199754</v>
       </c>
       <c r="S12">
-        <v>0.9873733464368424</v>
+        <v>0.9574432421199754</v>
       </c>
       <c r="T12">
-        <v>0.9954052559649119</v>
+        <v>0.9853924200380644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9325241232913559</v>
+        <v>0.8818348366154489</v>
       </c>
       <c r="D13">
-        <v>1.005973914547188</v>
+        <v>0.9961832968701019</v>
       </c>
       <c r="E13">
-        <v>0.9325241232913559</v>
+        <v>0.8818348366154489</v>
       </c>
       <c r="F13">
-        <v>1.018707190944781</v>
+        <v>1.047523753303812</v>
       </c>
       <c r="G13">
-        <v>1.015028307776681</v>
+        <v>1.032612011084229</v>
       </c>
       <c r="H13">
-        <v>0.971287329812572</v>
+        <v>0.9240219456177529</v>
       </c>
       <c r="I13">
-        <v>1.033851929153054</v>
+        <v>1.136368478932765</v>
       </c>
       <c r="J13">
-        <v>1.005973914547188</v>
+        <v>0.9961832968701019</v>
       </c>
       <c r="K13">
-        <v>1.005973914547188</v>
+        <v>0.9961832968701019</v>
       </c>
       <c r="L13">
-        <v>1.018707190944781</v>
+        <v>1.047523753303812</v>
       </c>
       <c r="M13">
-        <v>0.9756156571180684</v>
+        <v>0.9646792949596305</v>
       </c>
       <c r="N13">
-        <v>0.9756156571180684</v>
+        <v>0.9646792949596305</v>
       </c>
       <c r="O13">
-        <v>0.9741728813495696</v>
+        <v>0.9511268451790046</v>
       </c>
       <c r="P13">
-        <v>0.9857350762611082</v>
+        <v>0.9751806289297876</v>
       </c>
       <c r="Q13">
-        <v>0.9857350762611082</v>
+        <v>0.9751806289297876</v>
       </c>
       <c r="R13">
-        <v>0.9907947858326283</v>
+        <v>0.9804312959148662</v>
       </c>
       <c r="S13">
-        <v>0.9907947858326283</v>
+        <v>0.9804312959148662</v>
       </c>
       <c r="T13">
-        <v>0.996228799254272</v>
+        <v>1.003090720404018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.3021676</v>
+        <v>1.046266125199997</v>
       </c>
       <c r="D14">
-        <v>0.7009649700000007</v>
+        <v>0.9520571498526331</v>
       </c>
       <c r="E14">
-        <v>1.3021676</v>
+        <v>1.046266125199997</v>
       </c>
       <c r="F14">
-        <v>0.9974612800000009</v>
+        <v>0.9991129608421064</v>
       </c>
       <c r="G14">
-        <v>0.907408879999999</v>
+        <v>0.9849890148000012</v>
       </c>
       <c r="H14">
-        <v>1.278152700000002</v>
+        <v>1.045465355168421</v>
       </c>
       <c r="I14">
-        <v>0.6603244900000004</v>
+        <v>0.9445409299263133</v>
       </c>
       <c r="J14">
-        <v>0.7009649700000007</v>
+        <v>0.9520571498526331</v>
       </c>
       <c r="K14">
-        <v>0.7009649700000007</v>
+        <v>0.9520571498526331</v>
       </c>
       <c r="L14">
-        <v>0.9974612800000009</v>
+        <v>0.9991129608421064</v>
       </c>
       <c r="M14">
-        <v>1.149814440000001</v>
+        <v>1.022689543021052</v>
       </c>
       <c r="N14">
-        <v>1.149814440000001</v>
+        <v>1.022689543021052</v>
       </c>
       <c r="O14">
-        <v>1.192593860000001</v>
+        <v>1.030281480403508</v>
       </c>
       <c r="P14">
-        <v>1.000197950000001</v>
+        <v>0.9991454119649124</v>
       </c>
       <c r="Q14">
-        <v>1.000197950000001</v>
+        <v>0.9991454119649122</v>
       </c>
       <c r="R14">
-        <v>0.9253897050000006</v>
+        <v>0.9873733464368424</v>
       </c>
       <c r="S14">
-        <v>0.9253897050000006</v>
+        <v>0.9873733464368424</v>
       </c>
       <c r="T14">
-        <v>0.9744133200000006</v>
+        <v>0.9954052559649119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.21885897</v>
+        <v>0.9325241232913559</v>
       </c>
       <c r="D15">
-        <v>1.9813918</v>
+        <v>1.005973914547188</v>
       </c>
       <c r="E15">
-        <v>0.21885897</v>
+        <v>0.9325241232913559</v>
       </c>
       <c r="F15">
-        <v>0.8289786500000002</v>
+        <v>1.018707190944781</v>
       </c>
       <c r="G15">
-        <v>1.1585466</v>
+        <v>1.015028307776681</v>
       </c>
       <c r="H15">
-        <v>0.6454245799999999</v>
+        <v>0.971287329812572</v>
       </c>
       <c r="I15">
-        <v>0.66920919</v>
+        <v>1.033851929153054</v>
       </c>
       <c r="J15">
-        <v>1.9813918</v>
+        <v>1.005973914547188</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>1.005973914547188</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>1.018707190944781</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>0.9756156571180684</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>0.9756156571180684</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>0.9741728813495696</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>0.9857350762611082</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>0.9857350762611082</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>0.9907947858326283</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>0.9907947858326283</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>0.996228799254272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.089442961</v>
+        <v>1.3021676</v>
       </c>
       <c r="D16">
-        <v>0.8523544</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="E16">
-        <v>0.089442961</v>
+        <v>1.3021676</v>
       </c>
       <c r="F16">
-        <v>1.442229</v>
+        <v>0.9974612800000009</v>
       </c>
       <c r="G16">
-        <v>1.2709631</v>
+        <v>0.907408879999999</v>
       </c>
       <c r="H16">
-        <v>0.30567502</v>
+        <v>1.278152700000002</v>
       </c>
       <c r="I16">
-        <v>2.4881574</v>
+        <v>0.6603244900000004</v>
       </c>
       <c r="J16">
-        <v>0.8523544</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="K16">
-        <v>0.8523544</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="L16">
-        <v>1.442229</v>
+        <v>0.9974612800000009</v>
       </c>
       <c r="M16">
-        <v>0.7658359805000001</v>
+        <v>1.149814440000001</v>
       </c>
       <c r="N16">
-        <v>0.7658359805000001</v>
+        <v>1.149814440000001</v>
       </c>
       <c r="O16">
-        <v>0.6124489936666667</v>
+        <v>1.192593860000001</v>
       </c>
       <c r="P16">
-        <v>0.7946754536666667</v>
+        <v>1.000197950000001</v>
       </c>
       <c r="Q16">
-        <v>0.7946754536666667</v>
+        <v>1.000197950000001</v>
       </c>
       <c r="R16">
-        <v>0.80909519025</v>
+        <v>0.9253897050000006</v>
       </c>
       <c r="S16">
-        <v>0.80909519025</v>
+        <v>0.9253897050000006</v>
       </c>
       <c r="T16">
-        <v>1.074803646833333</v>
+        <v>0.9744133200000006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.34476448</v>
+        <v>0.21885897</v>
       </c>
       <c r="D17">
-        <v>1.3689816</v>
+        <v>1.9813918</v>
       </c>
       <c r="E17">
-        <v>0.34476448</v>
+        <v>0.21885897</v>
       </c>
       <c r="F17">
-        <v>1.0752509</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="G17">
-        <v>1.157503</v>
+        <v>1.1585466</v>
       </c>
       <c r="H17">
-        <v>0.67387115</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I17">
-        <v>1.1226458</v>
+        <v>0.66920919</v>
       </c>
       <c r="J17">
-        <v>1.3689816</v>
+        <v>1.9813918</v>
       </c>
       <c r="K17">
-        <v>1.3689816</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>1.0752509</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>0.71000769</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>0.71000769</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>0.6979621766666666</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>0.9296656599999999</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>0.9296656599999999</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>1.039494645</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>1.039494645</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>0.9571694883333333</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.092595816328767</v>
+        <v>0.089442961</v>
       </c>
       <c r="D18">
-        <v>0.9540367775342465</v>
+        <v>0.8523544</v>
       </c>
       <c r="E18">
-        <v>1.092595816328767</v>
+        <v>0.089442961</v>
       </c>
       <c r="F18">
-        <v>0.9694533050684926</v>
+        <v>1.442229</v>
       </c>
       <c r="G18">
-        <v>0.9640675676712326</v>
+        <v>1.2709631</v>
       </c>
       <c r="H18">
-        <v>1.099951597534247</v>
+        <v>0.30567502</v>
       </c>
       <c r="I18">
-        <v>0.844592319041096</v>
+        <v>2.4881574</v>
       </c>
       <c r="J18">
-        <v>0.9540367775342465</v>
+        <v>0.8523544</v>
       </c>
       <c r="K18">
-        <v>0.9540367775342465</v>
+        <v>0.8523544</v>
       </c>
       <c r="L18">
-        <v>0.9694533050684926</v>
+        <v>1.442229</v>
       </c>
       <c r="M18">
-        <v>1.03102456069863</v>
+        <v>0.7658359805000001</v>
       </c>
       <c r="N18">
-        <v>1.03102456069863</v>
+        <v>0.7658359805000001</v>
       </c>
       <c r="O18">
-        <v>1.054000239643836</v>
+        <v>0.6124489936666667</v>
       </c>
       <c r="P18">
-        <v>1.005361966310502</v>
+        <v>0.7946754536666667</v>
       </c>
       <c r="Q18">
-        <v>1.005361966310502</v>
+        <v>0.7946754536666667</v>
       </c>
       <c r="R18">
-        <v>0.9925306691164383</v>
+        <v>0.80909519025</v>
       </c>
       <c r="S18">
-        <v>0.9925306691164383</v>
+        <v>0.80909519025</v>
       </c>
       <c r="T18">
-        <v>0.9874495638630137</v>
+        <v>1.074803646833333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9706372662105263</v>
+        <v>0.34476448</v>
       </c>
       <c r="D19">
-        <v>0.8616872799999999</v>
+        <v>1.3689816</v>
       </c>
       <c r="E19">
-        <v>0.9706372662105263</v>
+        <v>0.34476448</v>
       </c>
       <c r="F19">
-        <v>1.105581433157895</v>
+        <v>1.0752509</v>
       </c>
       <c r="G19">
-        <v>1.033028472105263</v>
+        <v>1.157503</v>
       </c>
       <c r="H19">
-        <v>0.8806752273684212</v>
+        <v>0.67387115</v>
       </c>
       <c r="I19">
-        <v>1.410406334736842</v>
+        <v>1.1226458</v>
       </c>
       <c r="J19">
-        <v>0.8616872799999999</v>
+        <v>1.3689816</v>
       </c>
       <c r="K19">
-        <v>0.8616872799999999</v>
+        <v>1.3689816</v>
       </c>
       <c r="L19">
-        <v>1.105581433157895</v>
+        <v>1.0752509</v>
       </c>
       <c r="M19">
-        <v>1.038109349684211</v>
+        <v>0.71000769</v>
       </c>
       <c r="N19">
-        <v>1.038109349684211</v>
+        <v>0.71000769</v>
       </c>
       <c r="O19">
-        <v>0.9856313089122808</v>
+        <v>0.6979621766666666</v>
       </c>
       <c r="P19">
-        <v>0.9793019931228071</v>
+        <v>0.9296656599999999</v>
       </c>
       <c r="Q19">
-        <v>0.9793019931228071</v>
+        <v>0.9296656599999999</v>
       </c>
       <c r="R19">
-        <v>0.9498983148421053</v>
+        <v>1.039494645</v>
       </c>
       <c r="S19">
-        <v>0.9498983148421053</v>
+        <v>1.039494645</v>
       </c>
       <c r="T19">
-        <v>1.043669335596491</v>
+        <v>0.9571694883333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.4557892163157896</v>
+        <v>1.092595816328767</v>
       </c>
       <c r="D20">
-        <v>1.300482496315789</v>
+        <v>0.9540367775342465</v>
       </c>
       <c r="E20">
-        <v>0.4557892163157896</v>
+        <v>1.092595816328767</v>
       </c>
       <c r="F20">
-        <v>1.055916306842105</v>
+        <v>0.9694533050684926</v>
       </c>
       <c r="G20">
-        <v>1.127106211578947</v>
+        <v>0.9640675676712326</v>
       </c>
       <c r="H20">
-        <v>0.7339294589473685</v>
+        <v>1.099951597534247</v>
       </c>
       <c r="I20">
-        <v>1.122302255263158</v>
+        <v>0.844592319041096</v>
       </c>
       <c r="J20">
-        <v>1.300482496315789</v>
+        <v>0.9540367775342465</v>
       </c>
       <c r="K20">
-        <v>1.300482496315789</v>
+        <v>0.9540367775342465</v>
       </c>
       <c r="L20">
-        <v>1.055916306842105</v>
+        <v>0.9694533050684926</v>
       </c>
       <c r="M20">
-        <v>0.7558527615789473</v>
+        <v>1.03102456069863</v>
       </c>
       <c r="N20">
-        <v>0.7558527615789473</v>
+        <v>1.03102456069863</v>
       </c>
       <c r="O20">
-        <v>0.7485449940350878</v>
+        <v>1.054000239643836</v>
       </c>
       <c r="P20">
-        <v>0.937396006491228</v>
+        <v>1.005361966310502</v>
       </c>
       <c r="Q20">
-        <v>0.937396006491228</v>
+        <v>1.005361966310502</v>
       </c>
       <c r="R20">
-        <v>1.028167628947368</v>
+        <v>0.9925306691164383</v>
       </c>
       <c r="S20">
-        <v>1.028167628947368</v>
+        <v>0.9925306691164383</v>
       </c>
       <c r="T20">
-        <v>0.965920990877193</v>
+        <v>0.9874495638630137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.421533642546747</v>
+        <v>0.9706372662105263</v>
       </c>
       <c r="D21">
-        <v>0.6909695004160497</v>
+        <v>0.8616872799999999</v>
       </c>
       <c r="E21">
-        <v>1.421533642546747</v>
+        <v>0.9706372662105263</v>
       </c>
       <c r="F21">
-        <v>1.021658297021128</v>
+        <v>1.105581433157895</v>
       </c>
       <c r="G21">
-        <v>0.9254290813736291</v>
+        <v>1.033028472105263</v>
       </c>
       <c r="H21">
-        <v>1.11234435219816</v>
+        <v>0.8806752273684212</v>
       </c>
       <c r="I21">
-        <v>1.203959045191977</v>
+        <v>1.410406334736842</v>
       </c>
       <c r="J21">
-        <v>0.6909695004160497</v>
+        <v>0.8616872799999999</v>
       </c>
       <c r="K21">
-        <v>0.6909695004160497</v>
+        <v>0.8616872799999999</v>
       </c>
       <c r="L21">
-        <v>1.021658297021128</v>
+        <v>1.105581433157895</v>
       </c>
       <c r="M21">
-        <v>1.221595969783937</v>
+        <v>1.038109349684211</v>
       </c>
       <c r="N21">
-        <v>1.221595969783937</v>
+        <v>1.038109349684211</v>
       </c>
       <c r="O21">
-        <v>1.185178763922011</v>
+        <v>0.9856313089122808</v>
       </c>
       <c r="P21">
-        <v>1.044720479994641</v>
+        <v>0.9793019931228071</v>
       </c>
       <c r="Q21">
-        <v>1.044720479994641</v>
+        <v>0.9793019931228071</v>
       </c>
       <c r="R21">
-        <v>0.9562827350999934</v>
+        <v>0.9498983148421053</v>
       </c>
       <c r="S21">
-        <v>0.9562827350999934</v>
+        <v>0.9498983148421053</v>
       </c>
       <c r="T21">
-        <v>1.062648986457948</v>
+        <v>1.043669335596491</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.920870893691443</v>
+        <v>0.4557892163157896</v>
       </c>
       <c r="D22">
-        <v>1.07046845127991</v>
+        <v>1.300482496315789</v>
       </c>
       <c r="E22">
-        <v>0.920870893691443</v>
+        <v>0.4557892163157896</v>
       </c>
       <c r="F22">
-        <v>0.9766149069511636</v>
+        <v>1.055916306842105</v>
       </c>
       <c r="G22">
-        <v>1.003922125850108</v>
+        <v>1.127106211578947</v>
       </c>
       <c r="H22">
-        <v>1.028704240038631</v>
+        <v>0.7339294589473685</v>
       </c>
       <c r="I22">
-        <v>0.8115541720883946</v>
+        <v>1.122302255263158</v>
       </c>
       <c r="J22">
-        <v>1.07046845127991</v>
+        <v>1.300482496315789</v>
       </c>
       <c r="K22">
-        <v>1.07046845127991</v>
+        <v>1.300482496315789</v>
       </c>
       <c r="L22">
-        <v>0.9766149069511636</v>
+        <v>1.055916306842105</v>
       </c>
       <c r="M22">
-        <v>0.9487429003213033</v>
+        <v>0.7558527615789473</v>
       </c>
       <c r="N22">
-        <v>0.9487429003213033</v>
+        <v>0.7558527615789473</v>
       </c>
       <c r="O22">
-        <v>0.9753966802270791</v>
+        <v>0.7485449940350878</v>
       </c>
       <c r="P22">
-        <v>0.9893180839741721</v>
+        <v>0.937396006491228</v>
       </c>
       <c r="Q22">
-        <v>0.9893180839741721</v>
+        <v>0.937396006491228</v>
       </c>
       <c r="R22">
-        <v>1.009605675800607</v>
+        <v>1.028167628947368</v>
       </c>
       <c r="S22">
-        <v>1.009605675800607</v>
+        <v>1.028167628947368</v>
       </c>
       <c r="T22">
-        <v>0.9686891316499415</v>
+        <v>0.965920990877193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9739418494671106</v>
+        <v>1.421533642546747</v>
       </c>
       <c r="D23">
-        <v>1.017233168394421</v>
+        <v>0.6909695004160497</v>
       </c>
       <c r="E23">
-        <v>0.9739418494671106</v>
+        <v>1.421533642546747</v>
       </c>
       <c r="F23">
-        <v>0.9920924749330989</v>
+        <v>1.021658297021128</v>
       </c>
       <c r="G23">
-        <v>0.9994910868143071</v>
+        <v>0.9254290813736291</v>
       </c>
       <c r="H23">
-        <v>1.017984232218535</v>
+        <v>1.11234435219816</v>
       </c>
       <c r="I23">
-        <v>0.9212251918791787</v>
+        <v>1.203959045191977</v>
       </c>
       <c r="J23">
-        <v>1.017233168394421</v>
+        <v>0.6909695004160497</v>
       </c>
       <c r="K23">
-        <v>1.017233168394421</v>
+        <v>0.6909695004160497</v>
       </c>
       <c r="L23">
-        <v>0.9920924749330989</v>
+        <v>1.021658297021128</v>
       </c>
       <c r="M23">
-        <v>0.9830171622001047</v>
+        <v>1.221595969783937</v>
       </c>
       <c r="N23">
-        <v>0.9830171622001047</v>
+        <v>1.221595969783937</v>
       </c>
       <c r="O23">
-        <v>0.9946728522062479</v>
+        <v>1.185178763922011</v>
       </c>
       <c r="P23">
-        <v>0.99442249759821</v>
+        <v>1.044720479994641</v>
       </c>
       <c r="Q23">
-        <v>0.99442249759821</v>
+        <v>1.044720479994641</v>
       </c>
       <c r="R23">
-        <v>1.000125165297263</v>
+        <v>0.9562827350999934</v>
       </c>
       <c r="S23">
-        <v>1.000125165297263</v>
+        <v>0.9562827350999934</v>
       </c>
       <c r="T23">
-        <v>0.9869946672844417</v>
+        <v>1.062648986457948</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.055415523077768</v>
+        <v>0.920870893691443</v>
       </c>
       <c r="D24">
-        <v>1.001662564591766</v>
+        <v>1.07046845127991</v>
       </c>
       <c r="E24">
-        <v>1.055415523077768</v>
+        <v>0.920870893691443</v>
       </c>
       <c r="F24">
-        <v>0.9861804254626093</v>
+        <v>0.9766149069511636</v>
       </c>
       <c r="G24">
-        <v>0.9906513288027442</v>
+        <v>1.003922125850108</v>
       </c>
       <c r="H24">
-        <v>1.003341934373201</v>
+        <v>1.028704240038631</v>
       </c>
       <c r="I24">
-        <v>1.029773688224776</v>
+        <v>0.8115541720883946</v>
       </c>
       <c r="J24">
-        <v>1.001662564591766</v>
+        <v>1.07046845127991</v>
       </c>
       <c r="K24">
-        <v>1.001662564591766</v>
+        <v>1.07046845127991</v>
       </c>
       <c r="L24">
-        <v>0.9861804254626093</v>
+        <v>0.9766149069511636</v>
       </c>
       <c r="M24">
-        <v>1.020797974270188</v>
+        <v>0.9487429003213033</v>
       </c>
       <c r="N24">
-        <v>1.020797974270188</v>
+        <v>0.9487429003213033</v>
       </c>
       <c r="O24">
-        <v>1.014979294304526</v>
+        <v>0.9753966802270791</v>
       </c>
       <c r="P24">
-        <v>1.014419504377381</v>
+        <v>0.9893180839741721</v>
       </c>
       <c r="Q24">
-        <v>1.014419504377381</v>
+        <v>0.9893180839741721</v>
       </c>
       <c r="R24">
-        <v>1.011230269430977</v>
+        <v>1.009605675800607</v>
       </c>
       <c r="S24">
-        <v>1.011230269430977</v>
+        <v>1.009605675800607</v>
       </c>
       <c r="T24">
-        <v>1.011170910755477</v>
+        <v>0.9686891316499415</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.383253480661417</v>
+        <v>0.9739418494671106</v>
       </c>
       <c r="D25">
-        <v>1.410325223780476</v>
+        <v>1.017233168394421</v>
       </c>
       <c r="E25">
-        <v>0.383253480661417</v>
+        <v>0.9739418494671106</v>
       </c>
       <c r="F25">
-        <v>1.027462112328554</v>
+        <v>0.9920924749330989</v>
       </c>
       <c r="G25">
-        <v>1.139044132268843</v>
+        <v>0.9994910868143071</v>
       </c>
       <c r="H25">
-        <v>0.7066702914734904</v>
+        <v>1.017984232218535</v>
       </c>
       <c r="I25">
-        <v>1.071683780789608</v>
+        <v>0.9212251918791787</v>
       </c>
       <c r="J25">
-        <v>1.410325223780476</v>
+        <v>1.017233168394421</v>
       </c>
       <c r="K25">
-        <v>1.410325223780476</v>
+        <v>1.017233168394421</v>
       </c>
       <c r="L25">
-        <v>1.027462112328554</v>
+        <v>0.9920924749330989</v>
       </c>
       <c r="M25">
-        <v>0.7053577964949854</v>
+        <v>0.9830171622001047</v>
       </c>
       <c r="N25">
-        <v>0.7053577964949854</v>
+        <v>0.9830171622001047</v>
       </c>
       <c r="O25">
-        <v>0.7057952948211538</v>
+        <v>0.9946728522062479</v>
       </c>
       <c r="P25">
-        <v>0.9403469389234823</v>
+        <v>0.99442249759821</v>
       </c>
       <c r="Q25">
-        <v>0.9403469389234823</v>
+        <v>0.99442249759821</v>
       </c>
       <c r="R25">
-        <v>1.057841510137731</v>
+        <v>1.000125165297263</v>
       </c>
       <c r="S25">
-        <v>1.057841510137731</v>
+        <v>1.000125165297263</v>
       </c>
       <c r="T25">
-        <v>0.956406503550398</v>
+        <v>0.9869946672844417</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8678196934349931</v>
+        <v>1.055415523077768</v>
       </c>
       <c r="D26">
-        <v>0.8949055813895205</v>
+        <v>1.001662564591766</v>
       </c>
       <c r="E26">
-        <v>0.8678196934349931</v>
+        <v>1.055415523077768</v>
       </c>
       <c r="F26">
-        <v>1.08909968419954</v>
+        <v>0.9861804254626093</v>
       </c>
       <c r="G26">
-        <v>1.032499441045778</v>
+        <v>0.9906513288027442</v>
       </c>
       <c r="H26">
-        <v>0.936675634443817</v>
+        <v>1.003341934373201</v>
       </c>
       <c r="I26">
-        <v>1.190545089441659</v>
+        <v>1.029773688224776</v>
       </c>
       <c r="J26">
-        <v>0.8949055813895205</v>
+        <v>1.001662564591766</v>
       </c>
       <c r="K26">
-        <v>0.8949055813895205</v>
+        <v>1.001662564591766</v>
       </c>
       <c r="L26">
-        <v>1.08909968419954</v>
+        <v>0.9861804254626093</v>
       </c>
       <c r="M26">
-        <v>0.9784596888172667</v>
+        <v>1.020797974270188</v>
       </c>
       <c r="N26">
-        <v>0.9784596888172667</v>
+        <v>1.020797974270188</v>
       </c>
       <c r="O26">
-        <v>0.9645316706927834</v>
+        <v>1.014979294304526</v>
       </c>
       <c r="P26">
-        <v>0.9506083196746847</v>
+        <v>1.014419504377381</v>
       </c>
       <c r="Q26">
-        <v>0.9506083196746845</v>
+        <v>1.014419504377381</v>
       </c>
       <c r="R26">
-        <v>0.9366826351033936</v>
+        <v>1.011230269430977</v>
       </c>
       <c r="S26">
-        <v>0.9366826351033936</v>
+        <v>1.011230269430977</v>
       </c>
       <c r="T26">
-        <v>1.001924187325885</v>
+        <v>1.011170910755477</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.118806458734503</v>
+        <v>0.383253480661417</v>
       </c>
       <c r="D27">
-        <v>1.042562172008088</v>
+        <v>1.410325223780476</v>
       </c>
       <c r="E27">
-        <v>1.118806458734503</v>
+        <v>0.383253480661417</v>
       </c>
       <c r="F27">
-        <v>0.9632836548159832</v>
+        <v>1.027462112328554</v>
       </c>
       <c r="G27">
-        <v>0.9856990965178829</v>
+        <v>1.139044132268843</v>
       </c>
       <c r="H27">
-        <v>1.003364007376158</v>
+        <v>0.7066702914734904</v>
       </c>
       <c r="I27">
-        <v>0.996265127869812</v>
+        <v>1.071683780789608</v>
       </c>
       <c r="J27">
-        <v>1.042562172008088</v>
+        <v>1.410325223780476</v>
       </c>
       <c r="K27">
-        <v>1.042562172008088</v>
+        <v>1.410325223780476</v>
       </c>
       <c r="L27">
-        <v>0.9632836548159832</v>
+        <v>1.027462112328554</v>
       </c>
       <c r="M27">
-        <v>1.041045056775243</v>
+        <v>0.7053577964949854</v>
       </c>
       <c r="N27">
-        <v>1.041045056775243</v>
+        <v>0.7053577964949854</v>
       </c>
       <c r="O27">
-        <v>1.028484706975548</v>
+        <v>0.7057952948211538</v>
       </c>
       <c r="P27">
-        <v>1.041550761852858</v>
+        <v>0.9403469389234823</v>
       </c>
       <c r="Q27">
-        <v>1.041550761852858</v>
+        <v>0.9403469389234823</v>
       </c>
       <c r="R27">
-        <v>1.041803614391666</v>
+        <v>1.057841510137731</v>
       </c>
       <c r="S27">
-        <v>1.041803614391666</v>
+        <v>1.057841510137731</v>
       </c>
       <c r="T27">
-        <v>1.018330086220405</v>
+        <v>0.956406503550398</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9084356040708013</v>
+        <v>0.8678196934349931</v>
       </c>
       <c r="D28">
-        <v>1.02054315902604</v>
+        <v>0.8949055813895205</v>
       </c>
       <c r="E28">
-        <v>0.9084356040708013</v>
+        <v>0.8678196934349931</v>
       </c>
       <c r="F28">
-        <v>1.022067515846906</v>
+        <v>1.08909968419954</v>
       </c>
       <c r="G28">
-        <v>1.02147427783658</v>
+        <v>1.032499441045778</v>
       </c>
       <c r="H28">
-        <v>0.9542451671659181</v>
+        <v>0.936675634443817</v>
       </c>
       <c r="I28">
-        <v>1.05374435717482</v>
+        <v>1.190545089441659</v>
       </c>
       <c r="J28">
-        <v>1.02054315902604</v>
+        <v>0.8949055813895205</v>
       </c>
       <c r="K28">
-        <v>1.02054315902604</v>
+        <v>0.8949055813895205</v>
       </c>
       <c r="L28">
-        <v>1.022067515846906</v>
+        <v>1.08909968419954</v>
       </c>
       <c r="M28">
-        <v>0.9652515599588536</v>
+        <v>0.9784596888172667</v>
       </c>
       <c r="N28">
-        <v>0.9652515599588536</v>
+        <v>0.9784596888172667</v>
       </c>
       <c r="O28">
-        <v>0.9615827623612084</v>
+        <v>0.9645316706927834</v>
       </c>
       <c r="P28">
-        <v>0.983682092981249</v>
+        <v>0.9506083196746847</v>
       </c>
       <c r="Q28">
-        <v>0.983682092981249</v>
+        <v>0.9506083196746845</v>
       </c>
       <c r="R28">
-        <v>0.9928973594924467</v>
+        <v>0.9366826351033936</v>
       </c>
       <c r="S28">
-        <v>0.9928973594924467</v>
+        <v>0.9366826351033936</v>
       </c>
       <c r="T28">
-        <v>0.9967516801868442</v>
+        <v>1.001924187325885</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.118806458734503</v>
+      </c>
+      <c r="D29">
+        <v>1.042562172008088</v>
+      </c>
+      <c r="E29">
+        <v>1.118806458734503</v>
+      </c>
+      <c r="F29">
+        <v>0.9632836548159832</v>
+      </c>
+      <c r="G29">
+        <v>0.9856990965178829</v>
+      </c>
+      <c r="H29">
+        <v>1.003364007376158</v>
+      </c>
+      <c r="I29">
+        <v>0.996265127869812</v>
+      </c>
+      <c r="J29">
+        <v>1.042562172008088</v>
+      </c>
+      <c r="K29">
+        <v>1.042562172008088</v>
+      </c>
+      <c r="L29">
+        <v>0.9632836548159832</v>
+      </c>
+      <c r="M29">
+        <v>1.041045056775243</v>
+      </c>
+      <c r="N29">
+        <v>1.041045056775243</v>
+      </c>
+      <c r="O29">
+        <v>1.028484706975548</v>
+      </c>
+      <c r="P29">
+        <v>1.041550761852858</v>
+      </c>
+      <c r="Q29">
+        <v>1.041550761852858</v>
+      </c>
+      <c r="R29">
+        <v>1.041803614391666</v>
+      </c>
+      <c r="S29">
+        <v>1.041803614391666</v>
+      </c>
+      <c r="T29">
+        <v>1.018330086220405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9084356040708013</v>
+      </c>
+      <c r="D30">
+        <v>1.02054315902604</v>
+      </c>
+      <c r="E30">
+        <v>0.9084356040708013</v>
+      </c>
+      <c r="F30">
+        <v>1.022067515846906</v>
+      </c>
+      <c r="G30">
+        <v>1.02147427783658</v>
+      </c>
+      <c r="H30">
+        <v>0.9542451671659181</v>
+      </c>
+      <c r="I30">
+        <v>1.05374435717482</v>
+      </c>
+      <c r="J30">
+        <v>1.02054315902604</v>
+      </c>
+      <c r="K30">
+        <v>1.02054315902604</v>
+      </c>
+      <c r="L30">
+        <v>1.022067515846906</v>
+      </c>
+      <c r="M30">
+        <v>0.9652515599588536</v>
+      </c>
+      <c r="N30">
+        <v>0.9652515599588536</v>
+      </c>
+      <c r="O30">
+        <v>0.9615827623612084</v>
+      </c>
+      <c r="P30">
+        <v>0.983682092981249</v>
+      </c>
+      <c r="Q30">
+        <v>0.983682092981249</v>
+      </c>
+      <c r="R30">
+        <v>0.9928973594924467</v>
+      </c>
+      <c r="S30">
+        <v>0.9928973594924467</v>
+      </c>
+      <c r="T30">
+        <v>0.9967516801868442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8178200067066098</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.126329316788258</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8178200067066098</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.009359916145388</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.043374160685975</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9023337839111357</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.045177232966691</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.126329316788258</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.126329316788258</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.009359916145388</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9135899614259988</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9135899614259988</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9098379022543778</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9845030798800852</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9845030798800852</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.019959639107128</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.019959639107128</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9907324028673429</v>
       </c>
     </row>
